--- a/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
@@ -507,1562 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0002036580966285459</v>
+        <v>-0.0002036580964148155</v>
       </c>
       <c r="B2">
-        <v>-3.040814378889459</v>
+        <v>-3.040814378630965</v>
       </c>
       <c r="C2">
-        <v>-0.1585628625830671</v>
+        <v>-0.1585628625628443</v>
       </c>
       <c r="D2">
-        <v>-0.2295784820953532</v>
+        <v>-0.2295784820663863</v>
       </c>
       <c r="E2">
-        <v>-8.828092816461515</v>
+        <v>-8.828092812023712</v>
       </c>
       <c r="F2">
-        <v>-0.01102871287619913</v>
+        <v>-0.01102871281219746</v>
       </c>
       <c r="G2">
-        <v>-4.700623993244005E-06</v>
+        <v>-4.700623792441139E-06</v>
       </c>
       <c r="H2">
-        <v>-4.725445068188796E-06</v>
+        <v>-4.725445056650031E-06</v>
       </c>
       <c r="I2">
-        <v>-0.007043862223280465</v>
+        <v>-0.007043862196613287</v>
       </c>
       <c r="J2">
-        <v>-1.913075143986843</v>
+        <v>-1.913075143265912</v>
       </c>
       <c r="K2">
-        <v>-2.863316960334997E-05</v>
+        <v>-2.86331646295437E-05</v>
       </c>
       <c r="L2">
-        <v>0.0006926506949528094</v>
+        <v>0.0006926543817823173</v>
       </c>
       <c r="M2">
-        <v>-0.0002833099196866927</v>
+        <v>-0.0002833099141649863</v>
       </c>
       <c r="N2">
-        <v>-2.358692476813177E-07</v>
+        <v>-2.358692475916908E-07</v>
       </c>
       <c r="O2">
-        <v>-7.00203360482164E-05</v>
+        <v>-7.002033556024788E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004926923070561197</v>
+        <v>-0.0004926923058657701</v>
       </c>
       <c r="Q2">
-        <v>-0.0004978085157969323</v>
+        <v>-0.0004978085145638258</v>
       </c>
       <c r="R2">
-        <v>-0.001299525939126981</v>
+        <v>-0.001299525937944381</v>
       </c>
       <c r="S2">
-        <v>-8.853898381582136E-09</v>
+        <v>-8.853898347724981E-09</v>
       </c>
       <c r="T2">
-        <v>-3.329123552068945E-06</v>
+        <v>-3.329123551265299E-06</v>
       </c>
       <c r="U2">
-        <v>-0.003800327468926238</v>
+        <v>-0.003800327454356514</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001734561907810335</v>
+        <v>-0.000173456191232909</v>
       </c>
       <c r="B3">
-        <v>-2.568417787628642</v>
+        <v>-2.568417787538951</v>
       </c>
       <c r="C3">
-        <v>-0.1339776005785544</v>
+        <v>-0.133977600587075</v>
       </c>
       <c r="D3">
-        <v>-0.1939677476434</v>
+        <v>-0.1939677476535494</v>
       </c>
       <c r="E3">
-        <v>-7.457176034472616</v>
+        <v>-7.457176034927115</v>
       </c>
       <c r="F3">
-        <v>-0.009495873074365602</v>
+        <v>-0.009495873054873386</v>
       </c>
       <c r="G3">
-        <v>-4.302703685399556E-06</v>
+        <v>-4.302703601745015E-06</v>
       </c>
       <c r="H3">
-        <v>-4.005811050634827E-06</v>
+        <v>-4.005811047125375E-06</v>
       </c>
       <c r="I3">
-        <v>-0.005936573371124584</v>
+        <v>-0.005936573370154989</v>
       </c>
       <c r="J3">
-        <v>-1.616352149382829</v>
+        <v>-1.616352149396209</v>
       </c>
       <c r="K3">
-        <v>-1.813076159435216E-05</v>
+        <v>-1.813076167197919E-05</v>
       </c>
       <c r="L3">
-        <v>0.0005789286475857598</v>
+        <v>0.0005789225634227728</v>
       </c>
       <c r="M3">
-        <v>-0.0002663365872497465</v>
+        <v>-0.0002663365865961796</v>
       </c>
       <c r="N3">
-        <v>-1.992672712260439E-07</v>
+        <v>-1.99267271186648E-07</v>
       </c>
       <c r="O3">
-        <v>-6.111853763274379E-05</v>
+        <v>-6.111853756187084E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0004178069543148666</v>
+        <v>-0.0004178069537732044</v>
       </c>
       <c r="Q3">
-        <v>-0.0004223416288910224</v>
+        <v>-0.0004223416283325379</v>
       </c>
       <c r="R3">
-        <v>-0.001257067180092673</v>
+        <v>-0.001257067179781106</v>
       </c>
       <c r="S3">
-        <v>-7.479295815419595E-09</v>
+        <v>-7.479295869155851E-09</v>
       </c>
       <c r="T3">
-        <v>-2.813601087538992E-06</v>
+        <v>-2.81360108740956E-06</v>
       </c>
       <c r="U3">
-        <v>-0.003260262426320546</v>
+        <v>-0.003260262422907808</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007803120494143394</v>
+        <v>-0.007664669800111984</v>
       </c>
       <c r="B4">
-        <v>-0.4747132852573903</v>
+        <v>-0.9093203389203001</v>
       </c>
       <c r="C4">
-        <v>-0.2031457866040446</v>
+        <v>-0.172746372743214</v>
       </c>
       <c r="D4">
-        <v>-0.2795149329001573</v>
+        <v>-0.2422503595988995</v>
       </c>
       <c r="E4">
-        <v>-62.56950859928442</v>
+        <v>-60.9364451534123</v>
       </c>
       <c r="F4">
-        <v>-0.1282994844384162</v>
+        <v>-0.301044989666273</v>
       </c>
       <c r="G4">
-        <v>-0.0003940424620934642</v>
+        <v>-0.0003851869618529035</v>
       </c>
       <c r="H4">
-        <v>-8.312370400050642E-06</v>
+        <v>-6.478146792713326E-06</v>
       </c>
       <c r="I4">
-        <v>-0.06284750916866219</v>
+        <v>-0.05528266994357241</v>
       </c>
       <c r="J4">
-        <v>-5.694933472915693</v>
+        <v>-5.489513613471322</v>
       </c>
       <c r="K4">
-        <v>-0.02473607685892991</v>
+        <v>0.01757161616005106</v>
       </c>
       <c r="L4">
-        <v>-0.1370619253524819</v>
+        <v>0.02884466766704336</v>
       </c>
       <c r="M4">
-        <v>0.02446016629237929</v>
+        <v>0.02437850197970919</v>
       </c>
       <c r="N4">
-        <v>-3.732061350761436E-07</v>
+        <v>-2.76031658531257E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002545297832231628</v>
+        <v>-0.002471806599505271</v>
       </c>
       <c r="P4">
-        <v>-0.002365694447580995</v>
+        <v>-0.002334687980228357</v>
       </c>
       <c r="Q4">
-        <v>-0.002460076939805851</v>
+        <v>-0.00248492476413017</v>
       </c>
       <c r="R4">
-        <v>-0.001661619524997601</v>
+        <v>-0.001242215641742919</v>
       </c>
       <c r="S4">
-        <v>-5.665501641772953E-09</v>
+        <v>-5.335989300490922E-09</v>
       </c>
       <c r="T4">
-        <v>-3.551426192718204E-06</v>
+        <v>-3.835168643146285E-06</v>
       </c>
       <c r="U4">
-        <v>-0.0258337071211908</v>
+        <v>-0.08808345469082754</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814675783362</v>
+        <v>0.007834814702798839</v>
       </c>
       <c r="B5">
-        <v>2.681058195769693</v>
+        <v>2.681058203299153</v>
       </c>
       <c r="C5">
-        <v>0.1868247580756187</v>
+        <v>0.1868247595767374</v>
       </c>
       <c r="D5">
-        <v>0.2435841963547107</v>
+        <v>0.2435841983468091</v>
       </c>
       <c r="E5">
-        <v>8.932729898634284</v>
+        <v>8.932730134516405</v>
       </c>
       <c r="F5">
-        <v>0.8123056448195248</v>
+        <v>0.812305646695489</v>
       </c>
       <c r="G5">
-        <v>0.001638525998047916</v>
+        <v>0.001638526003397677</v>
       </c>
       <c r="H5">
-        <v>0.0002723741867240064</v>
+        <v>0.0002723741869557615</v>
       </c>
       <c r="I5">
-        <v>0.1539561389699443</v>
+        <v>0.1539561403597147</v>
       </c>
       <c r="J5">
-        <v>3.772734095346798</v>
+        <v>3.772734122739809</v>
       </c>
       <c r="K5">
-        <v>0.2477194246734391</v>
+        <v>0.2477194249377225</v>
       </c>
       <c r="L5">
-        <v>0.3893595517342845</v>
+        <v>0.3893598145424548</v>
       </c>
       <c r="M5">
-        <v>0.007111514084007245</v>
+        <v>0.007111514245374949</v>
       </c>
       <c r="N5">
-        <v>8.136901286455147E-07</v>
+        <v>8.136901313913812E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318541109140151</v>
+        <v>0.004318541129314615</v>
       </c>
       <c r="P5">
-        <v>0.004691227841823163</v>
+        <v>0.004691227868467332</v>
       </c>
       <c r="Q5">
-        <v>0.005041277904165034</v>
+        <v>0.005041277932055596</v>
       </c>
       <c r="R5">
-        <v>0.07972412624208348</v>
+        <v>0.0797241262917448</v>
       </c>
       <c r="S5">
-        <v>1.462737582779309E-08</v>
+        <v>1.462737819859875E-08</v>
       </c>
       <c r="T5">
-        <v>6.757167265844964E-06</v>
+        <v>6.757167296510452E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180270039291</v>
+        <v>0.2296180274119561</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981716934178677</v>
+        <v>0.08981717095600451</v>
       </c>
       <c r="B6">
-        <v>20.591952468653</v>
+        <v>20.59195285525304</v>
       </c>
       <c r="C6">
-        <v>0.4919298961349696</v>
+        <v>0.4919299710919784</v>
       </c>
       <c r="D6">
-        <v>0.6888601352066981</v>
+        <v>0.6888602348107765</v>
       </c>
       <c r="E6">
-        <v>17.46934797885379</v>
+        <v>17.46935854667902</v>
       </c>
       <c r="F6">
-        <v>4.469172498113838</v>
+        <v>4.469172588008254</v>
       </c>
       <c r="G6">
-        <v>0.006761206012412407</v>
+        <v>0.006761206233131086</v>
       </c>
       <c r="H6">
-        <v>0.0004877493749134351</v>
+        <v>0.0004877493902394418</v>
       </c>
       <c r="I6">
-        <v>4.028008010378334</v>
+        <v>4.028008060138639</v>
       </c>
       <c r="J6">
-        <v>17.21567239125913</v>
+        <v>17.2156738852042</v>
       </c>
       <c r="K6">
-        <v>0.1093007478900883</v>
+        <v>0.1093007528423721</v>
       </c>
       <c r="L6">
-        <v>0.1981733647468313</v>
+        <v>0.1981734598031865</v>
       </c>
       <c r="M6">
-        <v>0.2522931517179389</v>
+        <v>0.252293162377113</v>
       </c>
       <c r="N6">
-        <v>3.887161044979286E-06</v>
+        <v>3.887161137160036E-06</v>
       </c>
       <c r="O6">
-        <v>0.04056656339946599</v>
+        <v>0.04056656422038929</v>
       </c>
       <c r="P6">
-        <v>0.05319574762679877</v>
+        <v>0.05319574867956429</v>
       </c>
       <c r="Q6">
-        <v>0.05450811098133638</v>
+        <v>0.05450811210422117</v>
       </c>
       <c r="R6">
-        <v>0.1170714411017011</v>
+        <v>0.1170714432097637</v>
       </c>
       <c r="S6">
-        <v>9.06487888837099E-08</v>
+        <v>9.064879162802158E-08</v>
       </c>
       <c r="T6">
-        <v>6.220344224352454E-05</v>
+        <v>6.220344362974511E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023430809437</v>
+        <v>0.8057023652921098</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959575051402328</v>
+        <v>0.006959575056493576</v>
       </c>
       <c r="B7">
-        <v>0.6155804476222169</v>
+        <v>0.6155804468884083</v>
       </c>
       <c r="C7">
-        <v>0.2690751183791971</v>
+        <v>0.2690751184765249</v>
       </c>
       <c r="D7">
-        <v>0.3180249198974042</v>
+        <v>0.3180249200359723</v>
       </c>
       <c r="E7">
-        <v>24.63806356725662</v>
+        <v>24.63806355575309</v>
       </c>
       <c r="F7">
-        <v>0.1593620710909105</v>
+        <v>0.1593620709251181</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002198294327</v>
+        <v>-0.0002195002210277415</v>
       </c>
       <c r="H7">
-        <v>0.001596620083686129</v>
+        <v>0.001596620083725894</v>
       </c>
       <c r="I7">
-        <v>0.03259465563701705</v>
+        <v>0.03259465520865319</v>
       </c>
       <c r="J7">
-        <v>1.379421881182855</v>
+        <v>1.379421882334058</v>
       </c>
       <c r="K7">
-        <v>0.01479103872162333</v>
+        <v>0.01479103857534321</v>
       </c>
       <c r="L7">
-        <v>2.123275299253385</v>
+        <v>2.123277745658136</v>
       </c>
       <c r="M7">
-        <v>0.003915595844989215</v>
+        <v>0.003915595855982855</v>
       </c>
       <c r="N7">
-        <v>-2.205771332186316E-06</v>
+        <v>-2.205771332258969E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217882352926</v>
+        <v>0.002887217877605857</v>
       </c>
       <c r="P7">
-        <v>0.004960198484704499</v>
+        <v>0.004960198483843617</v>
       </c>
       <c r="Q7">
-        <v>0.005064426422894154</v>
+        <v>0.005064426422034559</v>
       </c>
       <c r="R7">
-        <v>0.006986424210441418</v>
+        <v>0.006986424207602282</v>
       </c>
       <c r="S7">
-        <v>2.303647134257211E-08</v>
+        <v>2.303649305666822E-08</v>
       </c>
       <c r="T7">
-        <v>2.82695414940781E-06</v>
+        <v>2.826954144572017E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441904913925</v>
+        <v>0.02732441905400924</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.08981716934178677</v>
+        <v>-0.08981717095600451</v>
       </c>
       <c r="B8">
-        <v>20.591952468653</v>
+        <v>-20.59195285525304</v>
       </c>
       <c r="C8">
-        <v>0.4919298961349696</v>
+        <v>-0.4919299710919784</v>
       </c>
       <c r="D8">
-        <v>0.6888601352066981</v>
+        <v>-0.6888602348107767</v>
       </c>
       <c r="E8">
-        <v>17.46934797885379</v>
+        <v>-17.46935854667903</v>
       </c>
       <c r="F8">
-        <v>4.469172498113838</v>
+        <v>-4.469172588008254</v>
       </c>
       <c r="G8">
-        <v>0.006761206012412407</v>
+        <v>-0.006761206233131086</v>
       </c>
       <c r="H8">
-        <v>0.0004877493749134351</v>
+        <v>-0.0004877493902394418</v>
       </c>
       <c r="I8">
-        <v>4.028008010378334</v>
+        <v>-4.028008060138639</v>
       </c>
       <c r="J8">
-        <v>17.21567239125913</v>
+        <v>-17.2156738852042</v>
       </c>
       <c r="K8">
-        <v>0.1093007478900883</v>
+        <v>-0.1093007528424075</v>
       </c>
       <c r="L8">
-        <v>0.1981733647468313</v>
+        <v>-0.1981734598031865</v>
       </c>
       <c r="M8">
-        <v>0.2522931517179389</v>
+        <v>-0.252293162377113</v>
       </c>
       <c r="N8">
-        <v>3.887161044979286E-06</v>
+        <v>-3.887161137160036E-06</v>
       </c>
       <c r="O8">
-        <v>0.04056656339946599</v>
+        <v>-0.04056656422038929</v>
       </c>
       <c r="P8">
-        <v>0.05319574762679877</v>
+        <v>-0.05319574867956429</v>
       </c>
       <c r="Q8">
-        <v>0.05450811098133638</v>
+        <v>-0.05450811210422117</v>
       </c>
       <c r="R8">
-        <v>0.1170714411017011</v>
+        <v>-0.1170714432097637</v>
       </c>
       <c r="S8">
-        <v>9.06487888837099E-08</v>
+        <v>-9.064879162802158E-08</v>
       </c>
       <c r="T8">
-        <v>6.220344224352454E-05</v>
+        <v>-6.220344362974511E-05</v>
       </c>
       <c r="U8">
-        <v>0.8057023430809437</v>
+        <v>-0.8057023652921098</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.00347370460305889</v>
+        <v>0.008446596981003415</v>
       </c>
       <c r="B9">
-        <v>0.3191780596747921</v>
+        <v>0.8152284910452315</v>
       </c>
       <c r="C9">
-        <v>0.2097517960167253</v>
+        <v>0.5096467128111043</v>
       </c>
       <c r="D9">
-        <v>0.2547162526450052</v>
+        <v>0.6197107250980849</v>
       </c>
       <c r="E9">
-        <v>14.15607558647093</v>
+        <v>34.24860949026518</v>
       </c>
       <c r="F9">
-        <v>0.07977320884583022</v>
+        <v>0.1986026032548784</v>
       </c>
       <c r="G9">
-        <v>8.772239204669204E-05</v>
+        <v>0.0004588962076768931</v>
       </c>
       <c r="H9">
-        <v>0.0001824138211062354</v>
+        <v>0.001235671650294431</v>
       </c>
       <c r="I9">
-        <v>0.04146374497765802</v>
+        <v>0.1042438674286446</v>
       </c>
       <c r="J9">
-        <v>1.584445934004342</v>
+        <v>4.278608711301215</v>
       </c>
       <c r="K9">
-        <v>0.002240203496959837</v>
+        <v>0.01762965127049675</v>
       </c>
       <c r="L9">
-        <v>1.179831783186739</v>
+        <v>2.822850559986555</v>
       </c>
       <c r="M9">
-        <v>0.0006111112044362808</v>
+        <v>0.002063281755992299</v>
       </c>
       <c r="N9">
-        <v>6.918415359313373E-07</v>
+        <v>1.929764471774065E-06</v>
       </c>
       <c r="O9">
-        <v>0.001266182826997895</v>
+        <v>0.00311594289564557</v>
       </c>
       <c r="P9">
-        <v>0.003083002841993076</v>
+        <v>0.007495161904080102</v>
       </c>
       <c r="Q9">
-        <v>0.003153254253021133</v>
+        <v>0.007669981362588837</v>
       </c>
       <c r="R9">
-        <v>0.003143140553778826</v>
+        <v>0.008047584716484039</v>
       </c>
       <c r="S9">
-        <v>1.28911380879605E-08</v>
+        <v>3.121153375907522E-08</v>
       </c>
       <c r="T9">
-        <v>1.601022249233593E-06</v>
+        <v>4.062328394275667E-06</v>
       </c>
       <c r="U9">
-        <v>0.02279366831363937</v>
+        <v>0.05658618434008073</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0008140106192208095</v>
+        <v>0.0008140106372463976</v>
       </c>
       <c r="B10">
-        <v>0.6017902304097476</v>
+        <v>0.6017902319707945</v>
       </c>
       <c r="C10">
-        <v>0.01177011708847209</v>
+        <v>0.01177011776495551</v>
       </c>
       <c r="D10">
-        <v>0.01563033981293463</v>
+        <v>0.01563034072848188</v>
       </c>
       <c r="E10">
-        <v>-0.7243130415579297</v>
+        <v>-0.7243128766144866</v>
       </c>
       <c r="F10">
-        <v>-0.01705674762458062</v>
+        <v>-0.01705674715210723</v>
       </c>
       <c r="G10">
-        <v>2.052769105874739E-05</v>
+        <v>2.052769273653852E-05</v>
       </c>
       <c r="H10">
-        <v>0.0002283819097976094</v>
+        <v>0.0002283819098235957</v>
       </c>
       <c r="I10">
-        <v>0.0013203717075904</v>
+        <v>0.001320371807064367</v>
       </c>
       <c r="J10">
-        <v>0.2273224777375699</v>
+        <v>0.227322494234032</v>
       </c>
       <c r="K10">
-        <v>-0.001182083479277844</v>
+        <v>-0.001182083533894446</v>
       </c>
       <c r="L10">
-        <v>-0.2007597679206145</v>
+        <v>-0.2007597755880296</v>
       </c>
       <c r="M10">
-        <v>0.0004241620606856507</v>
+        <v>0.0004241620208492407</v>
       </c>
       <c r="N10">
-        <v>1.152204298176525E-05</v>
+        <v>1.15220429823038E-05</v>
       </c>
       <c r="O10">
-        <v>0.0002738401029712323</v>
+        <v>0.0002738401107984814</v>
       </c>
       <c r="P10">
-        <v>0.002408450024254711</v>
+        <v>0.002408450032678536</v>
       </c>
       <c r="Q10">
-        <v>0.002350457260075771</v>
+        <v>0.00235045726893198</v>
       </c>
       <c r="R10">
-        <v>0.001859160819782468</v>
+        <v>0.00185916082909585</v>
       </c>
       <c r="S10">
-        <v>3.957894788065193E-10</v>
+        <v>3.957894236513585E-10</v>
       </c>
       <c r="T10">
-        <v>7.998542581463702E-07</v>
+        <v>7.998542686296691E-07</v>
       </c>
       <c r="U10">
-        <v>-0.01161362456354782</v>
+        <v>-0.01161362442660229</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670371676966</v>
+        <v>0.0003736670370117968</v>
       </c>
       <c r="B11">
-        <v>0.0354783926863918</v>
+        <v>0.03547839264996711</v>
       </c>
       <c r="C11">
-        <v>0.01735694949371852</v>
+        <v>0.01735694949010506</v>
       </c>
       <c r="D11">
-        <v>0.02142888723631241</v>
+        <v>0.02142888723070282</v>
       </c>
       <c r="E11">
-        <v>1.087724786482683</v>
+        <v>1.087724787019524</v>
       </c>
       <c r="F11">
-        <v>0.008745847558515962</v>
+        <v>0.008745847548500732</v>
       </c>
       <c r="G11">
-        <v>1.429857891140079E-05</v>
+        <v>1.429857887653149E-05</v>
       </c>
       <c r="H11">
-        <v>1.52760621311955E-06</v>
+        <v>1.527606212020492E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329534009794146</v>
+        <v>0.005329534005845923</v>
       </c>
       <c r="J11">
-        <v>0.1728109084711263</v>
+        <v>0.1728109084831612</v>
       </c>
       <c r="K11">
-        <v>8.879001596322587E-05</v>
+        <v>8.879002039417204E-05</v>
       </c>
       <c r="L11">
-        <v>0.1748643427237198</v>
+        <v>0.1748642152967024</v>
       </c>
       <c r="M11">
-        <v>0.0004609133522451688</v>
+        <v>0.0004609133496365998</v>
       </c>
       <c r="N11">
-        <v>1.678931473825799E-07</v>
+        <v>1.678931473908757E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687057959164</v>
+        <v>0.0001317687056691184</v>
       </c>
       <c r="P11">
-        <v>0.0004362982595630385</v>
+        <v>0.0004362982595739202</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788793946231</v>
+        <v>0.0004458788793991715</v>
       </c>
       <c r="R11">
-        <v>0.0003881229434532469</v>
+        <v>0.000388122943128193</v>
       </c>
       <c r="S11">
-        <v>1.822863322896821E-09</v>
+        <v>1.822862191609051E-09</v>
       </c>
       <c r="T11">
-        <v>1.742287738334524E-07</v>
+        <v>1.742287737089211E-07</v>
       </c>
       <c r="U11">
-        <v>0.002905566086611445</v>
+        <v>0.00290556608391896</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224244669528934E-05</v>
+        <v>7.224247534221235E-05</v>
       </c>
       <c r="B12">
-        <v>0.04340678575879661</v>
+        <v>0.04340679235724539</v>
       </c>
       <c r="C12">
-        <v>0.001952530801790152</v>
+        <v>0.001952531827495538</v>
       </c>
       <c r="D12">
-        <v>0.002502909106250146</v>
+        <v>0.002502910458207617</v>
       </c>
       <c r="E12">
-        <v>0.1964118886395152</v>
+        <v>0.1964120250446745</v>
       </c>
       <c r="F12">
-        <v>0.01323766113035076</v>
+        <v>0.013237662865513</v>
       </c>
       <c r="G12">
-        <v>7.602146609583781E-06</v>
+        <v>7.602150731550431E-06</v>
       </c>
       <c r="H12">
-        <v>6.696427431333005E-07</v>
+        <v>6.696429907364976E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412108449039078</v>
+        <v>0.0007412117726897479</v>
       </c>
       <c r="J12">
-        <v>0.02944731758647938</v>
+        <v>0.02944733551888168</v>
       </c>
       <c r="K12">
-        <v>0.003003638166935295</v>
+        <v>0.003003638271915987</v>
       </c>
       <c r="L12">
-        <v>0.01437969838698382</v>
+        <v>0.01437969735235561</v>
       </c>
       <c r="M12">
-        <v>4.673546050616547E-05</v>
+        <v>4.673563545975961E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325557464544E-08</v>
+        <v>2.328325743300097E-08</v>
       </c>
       <c r="O12">
-        <v>4.418553688257365E-05</v>
+        <v>4.418555483205969E-05</v>
       </c>
       <c r="P12">
-        <v>9.640461525019266E-05</v>
+        <v>9.640463475036409E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812182625995</v>
+        <v>0.0001018812388729136</v>
       </c>
       <c r="R12">
-        <v>0.0001275624650102593</v>
+        <v>0.0001275625046099808</v>
       </c>
       <c r="S12">
-        <v>2.864810772155984E-10</v>
+        <v>2.864811004104044E-10</v>
       </c>
       <c r="T12">
-        <v>7.764471554357072E-08</v>
+        <v>7.764474022479036E-08</v>
       </c>
       <c r="U12">
-        <v>0.004517339399227624</v>
+        <v>0.004517339835373143</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.007186257364994059</v>
+        <v>0.007186257393021068</v>
       </c>
       <c r="B13">
-        <v>1.423816161663465</v>
+        <v>1.423816167713544</v>
       </c>
       <c r="C13">
-        <v>0.05096823770377302</v>
+        <v>0.05096823865769642</v>
       </c>
       <c r="D13">
-        <v>0.07137129467475442</v>
+        <v>0.07137129595290782</v>
       </c>
       <c r="E13">
-        <v>5.283505721350006</v>
+        <v>5.28350589230475</v>
       </c>
       <c r="F13">
-        <v>0.3596394419668119</v>
+        <v>0.3596394435076706</v>
       </c>
       <c r="G13">
-        <v>0.002487409884438316</v>
+        <v>0.00248740988797258</v>
       </c>
       <c r="H13">
-        <v>0.0001433961881186577</v>
+        <v>0.0001433961883097734</v>
       </c>
       <c r="I13">
-        <v>0.09824940661014181</v>
+        <v>0.09824940764960034</v>
       </c>
       <c r="J13">
-        <v>1.817127109472867</v>
+        <v>1.817127129228132</v>
       </c>
       <c r="K13">
-        <v>-0.03405245813487016</v>
+        <v>-0.03405245793694515</v>
       </c>
       <c r="L13">
-        <v>1.822394431205447</v>
+        <v>1.822394174768338</v>
       </c>
       <c r="M13">
-        <v>0.003797877341416046</v>
+        <v>0.003797877473813883</v>
       </c>
       <c r="N13">
-        <v>4.368704351214391E-07</v>
+        <v>4.368704369249594E-07</v>
       </c>
       <c r="O13">
-        <v>0.005826737360932213</v>
+        <v>0.005826737376911716</v>
       </c>
       <c r="P13">
-        <v>0.004006066738471385</v>
+        <v>0.004006066756924467</v>
       </c>
       <c r="Q13">
-        <v>0.004138473547022546</v>
+        <v>0.00413847356641569</v>
       </c>
       <c r="R13">
-        <v>0.01358234290085376</v>
+        <v>0.01358234293186011</v>
       </c>
       <c r="S13">
-        <v>2.397265982456279E-08</v>
+        <v>2.397265757874353E-08</v>
       </c>
       <c r="T13">
-        <v>5.758331726389699E-06</v>
+        <v>5.758331750089694E-06</v>
       </c>
       <c r="U13">
-        <v>0.07279753720385349</v>
+        <v>0.07279753759284506</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004640164427341003</v>
+        <v>0.004640164429417231</v>
       </c>
       <c r="B14">
-        <v>2.136862507363351</v>
+        <v>2.136862507999189</v>
       </c>
       <c r="C14">
-        <v>0.03628000350503813</v>
+        <v>0.03628000367529827</v>
       </c>
       <c r="D14">
-        <v>0.04922742392835524</v>
+        <v>0.04922742415546593</v>
       </c>
       <c r="E14">
-        <v>5.981470460364058</v>
+        <v>5.981470493540451</v>
       </c>
       <c r="F14">
-        <v>1.655948792264143</v>
+        <v>1.655948792354743</v>
       </c>
       <c r="G14">
-        <v>0.0002268687920870245</v>
+        <v>0.0002268687921944749</v>
       </c>
       <c r="H14">
-        <v>2.661409700128846E-05</v>
+        <v>2.661409703655143E-05</v>
       </c>
       <c r="I14">
-        <v>0.04953876830130368</v>
+        <v>0.04953876826795864</v>
       </c>
       <c r="J14">
-        <v>0.8264105795435541</v>
+        <v>0.8264105842641695</v>
       </c>
       <c r="K14">
-        <v>0.03176549718711916</v>
+        <v>0.03176549728115356</v>
       </c>
       <c r="L14">
-        <v>0.02394581774354101</v>
+        <v>0.02394522443664593</v>
       </c>
       <c r="M14">
-        <v>0.002175076727734009</v>
+        <v>0.002175076716390913</v>
       </c>
       <c r="N14">
-        <v>1.604287366021867E-07</v>
+        <v>1.604287368277704E-07</v>
       </c>
       <c r="O14">
-        <v>0.001995633472277334</v>
+        <v>0.001995633471641595</v>
       </c>
       <c r="P14">
-        <v>0.004134859163671615</v>
+        <v>0.00413485916441835</v>
       </c>
       <c r="Q14">
-        <v>0.004473836056420445</v>
+        <v>0.004473836057225195</v>
       </c>
       <c r="R14">
-        <v>0.0157699102908706</v>
+        <v>0.01576991029126761</v>
       </c>
       <c r="S14">
-        <v>8.009732051666177E-09</v>
+        <v>8.009726787969509E-09</v>
       </c>
       <c r="T14">
-        <v>3.6288269438484E-06</v>
+        <v>3.628826945005771E-06</v>
       </c>
       <c r="U14">
-        <v>0.6748054547088523</v>
+        <v>0.6748054547191882</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.01272720781576436</v>
+        <v>0.01272720783915084</v>
       </c>
       <c r="B15">
-        <v>7.032576229837638</v>
+        <v>7.03257623569086</v>
       </c>
       <c r="C15">
-        <v>0.1663298266141635</v>
+        <v>0.1663298279948215</v>
       </c>
       <c r="D15">
-        <v>0.2131053854825469</v>
+        <v>0.2131053872918812</v>
       </c>
       <c r="E15">
-        <v>26.56433226888274</v>
+        <v>26.56433248158556</v>
       </c>
       <c r="F15">
-        <v>3.570725094951213</v>
+        <v>3.570725095619422</v>
       </c>
       <c r="G15">
-        <v>0.0006056785420479979</v>
+        <v>0.0006056785435737499</v>
       </c>
       <c r="H15">
-        <v>0.0002679873015380219</v>
+        <v>0.0002679873018207775</v>
       </c>
       <c r="I15">
-        <v>0.1553199900445735</v>
+        <v>0.1553199895472492</v>
       </c>
       <c r="J15">
-        <v>4.531832738705824</v>
+        <v>4.53183277301063</v>
       </c>
       <c r="K15">
-        <v>0.3581076320016315</v>
+        <v>0.3581076324645081</v>
       </c>
       <c r="L15">
-        <v>-0.07797713266330604</v>
+        <v>-0.07797682847675455</v>
       </c>
       <c r="M15">
-        <v>0.007267869241277021</v>
+        <v>0.007267869208887234</v>
       </c>
       <c r="N15">
-        <v>2.72600154144992E-06</v>
+        <v>2.726001542648023E-06</v>
       </c>
       <c r="O15">
-        <v>0.006002796179859615</v>
+        <v>0.006002796180926899</v>
       </c>
       <c r="P15">
-        <v>0.0121663318938074</v>
+        <v>0.01216633190295841</v>
       </c>
       <c r="Q15">
-        <v>0.01229157884098192</v>
+        <v>0.01229157885098556</v>
       </c>
       <c r="R15">
-        <v>0.1098420122394254</v>
+        <v>0.109842012251066</v>
       </c>
       <c r="S15">
-        <v>2.413638706410298E-08</v>
+        <v>2.413638979152264E-08</v>
       </c>
       <c r="T15">
-        <v>1.21049229592452E-05</v>
+        <v>1.210492297154862E-05</v>
       </c>
       <c r="U15">
-        <v>1.371581758455576</v>
+        <v>1.371581758509181</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.00637667473948999</v>
+        <v>0.006376674754224025</v>
       </c>
       <c r="B16">
-        <v>2.716596966609455</v>
+        <v>2.716596969699363</v>
       </c>
       <c r="C16">
-        <v>0.06539456819337876</v>
+        <v>0.06539456884713565</v>
       </c>
       <c r="D16">
-        <v>0.08697010194762629</v>
+        <v>0.08697010282718616</v>
       </c>
       <c r="E16">
-        <v>7.006761550148637</v>
+        <v>7.006761643608347</v>
       </c>
       <c r="F16">
-        <v>1.798712858586584</v>
+        <v>1.798712859160661</v>
       </c>
       <c r="G16">
-        <v>0.0006412244973032053</v>
+        <v>0.0006412244986737375</v>
       </c>
       <c r="H16">
-        <v>8.93109822292799E-05</v>
+        <v>8.931098236591505E-05</v>
       </c>
       <c r="I16">
-        <v>0.07490979827228272</v>
+        <v>0.07490979835293467</v>
       </c>
       <c r="J16">
-        <v>1.503420470227822</v>
+        <v>1.503420484347235</v>
       </c>
       <c r="K16">
-        <v>0.1273094532934305</v>
+        <v>0.1273094534802708</v>
       </c>
       <c r="L16">
-        <v>0.1121490700793208</v>
+        <v>0.1121491913114463</v>
       </c>
       <c r="M16">
-        <v>0.003026546312057512</v>
+        <v>0.00302654633714633</v>
       </c>
       <c r="N16">
-        <v>4.228469960696245E-07</v>
+        <v>4.228469967411885E-07</v>
       </c>
       <c r="O16">
-        <v>0.003314047560542667</v>
+        <v>0.003314047566088957</v>
       </c>
       <c r="P16">
-        <v>0.00594432662030437</v>
+        <v>0.005944326629817543</v>
       </c>
       <c r="Q16">
-        <v>0.00663101077194205</v>
+        <v>0.006631010782054339</v>
       </c>
       <c r="R16">
-        <v>0.0445394063442835</v>
+        <v>0.04453940635539363</v>
       </c>
       <c r="S16">
-        <v>1.13751403311042E-08</v>
+        <v>1.137514142285994E-08</v>
       </c>
       <c r="T16">
-        <v>5.300656873430202E-06</v>
+        <v>5.300656883304265E-06</v>
       </c>
       <c r="U16">
-        <v>0.6995528675095694</v>
+        <v>0.6995528676213206</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920790830349</v>
+        <v>-0.0003009920802674617</v>
       </c>
       <c r="B17">
-        <v>-2.39865460065352</v>
+        <v>-2.398654600482343</v>
       </c>
       <c r="C17">
-        <v>-0.119620992334391</v>
+        <v>-0.1196209923592371</v>
       </c>
       <c r="D17">
-        <v>-0.1592720026077019</v>
+        <v>-0.1592720026389384</v>
       </c>
       <c r="E17">
-        <v>-1.253169410615843</v>
+        <v>-1.253169413368171</v>
       </c>
       <c r="F17">
-        <v>-0.01544141228704391</v>
+        <v>-0.01544141224116116</v>
       </c>
       <c r="G17">
-        <v>-1.152841697233867E-05</v>
+        <v>-1.152841678464366E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141988415875E-05</v>
+        <v>-2.169141987979547E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274715532818</v>
+        <v>-0.02133274712825329</v>
       </c>
       <c r="J17">
-        <v>-2.333581976639072</v>
+        <v>-2.33358197696329</v>
       </c>
       <c r="K17">
-        <v>0.0002297377042087028</v>
+        <v>0.0002297377089478213</v>
       </c>
       <c r="L17">
-        <v>-0.0003537116018383545</v>
+        <v>-0.0003537349940146728</v>
       </c>
       <c r="M17">
-        <v>-0.0002821147938645486</v>
+        <v>-0.0002821147906211064</v>
       </c>
       <c r="N17">
-        <v>-1.034697469709357E-06</v>
+        <v>-1.034697469608104E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728133689638</v>
+        <v>-0.0001109728131070484</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333588005362</v>
+        <v>-0.0006372333576103948</v>
       </c>
       <c r="Q17">
-        <v>-0.000644503723222026</v>
+        <v>-0.0006445037219984251</v>
       </c>
       <c r="R17">
-        <v>-0.003509081739989633</v>
+        <v>-0.003509081739092226</v>
       </c>
       <c r="S17">
-        <v>-6.988119928835561E-09</v>
+        <v>-6.988120136021739E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840512629234E-06</v>
+        <v>-2.907840512285896E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392551028168</v>
+        <v>-0.005221392543224623</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.004780964464547654</v>
+        <v>0.004780964466311119</v>
       </c>
       <c r="B18">
-        <v>2.178995771660152</v>
+        <v>2.178995772269377</v>
       </c>
       <c r="C18">
-        <v>0.03811097105174809</v>
+        <v>0.03811097126539845</v>
       </c>
       <c r="D18">
-        <v>0.05165170602057122</v>
+        <v>0.0516517063100163</v>
       </c>
       <c r="E18">
-        <v>6.356139242331898</v>
+        <v>6.356139277763771</v>
       </c>
       <c r="F18">
-        <v>1.625557050113432</v>
+        <v>1.625557050185014</v>
       </c>
       <c r="G18">
-        <v>0.0002562462349479244</v>
+        <v>0.0002562462350003543</v>
       </c>
       <c r="H18">
-        <v>2.846230684581015E-05</v>
+        <v>2.846230688487501E-05</v>
       </c>
       <c r="I18">
-        <v>0.06626840231526572</v>
+        <v>0.06626840223582998</v>
       </c>
       <c r="J18">
-        <v>0.8811123513066622</v>
+        <v>0.8811123565466842</v>
       </c>
       <c r="K18">
-        <v>0.03940658054533246</v>
+        <v>0.03940658061599608</v>
       </c>
       <c r="L18">
-        <v>0.02488084505281529</v>
+        <v>0.0248807518275902</v>
       </c>
       <c r="M18">
-        <v>0.001691993762812493</v>
+        <v>0.001691993748502799</v>
       </c>
       <c r="N18">
-        <v>3.273022364948025E-07</v>
+        <v>3.273022368165222E-07</v>
       </c>
       <c r="O18">
-        <v>0.002113792909111954</v>
+        <v>0.002113792907623094</v>
       </c>
       <c r="P18">
-        <v>0.004469588847808187</v>
+        <v>0.004469588848018884</v>
       </c>
       <c r="Q18">
-        <v>0.004864475091748697</v>
+        <v>0.004864475092011146</v>
       </c>
       <c r="R18">
-        <v>0.01792902235985377</v>
+        <v>0.01792902235971242</v>
       </c>
       <c r="S18">
-        <v>8.241578967706904E-09</v>
+        <v>8.24157814290577E-09</v>
       </c>
       <c r="T18">
-        <v>3.815500289304582E-06</v>
+        <v>3.815500289864076E-06</v>
       </c>
       <c r="U18">
-        <v>0.6571808927517784</v>
+        <v>0.6571808927544693</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001063707192355794</v>
+        <v>0.0001063707196150871</v>
       </c>
       <c r="B19">
-        <v>0.02355055759974755</v>
+        <v>0.02355055767908412</v>
       </c>
       <c r="C19">
-        <v>0.000796490302315237</v>
+        <v>0.0007964903167197771</v>
       </c>
       <c r="D19">
-        <v>0.0008286073417947014</v>
+        <v>0.0008286073607765503</v>
       </c>
       <c r="E19">
-        <v>0.0623922043637356</v>
+        <v>0.06239220681897527</v>
       </c>
       <c r="F19">
-        <v>0.01386694357347227</v>
+        <v>0.0138669435937</v>
       </c>
       <c r="G19">
-        <v>9.461375663782303E-06</v>
+        <v>9.461375703346156E-06</v>
       </c>
       <c r="H19">
-        <v>4.855005563265156E-05</v>
+        <v>4.855005563478232E-05</v>
       </c>
       <c r="I19">
-        <v>0.0006585166923609961</v>
+        <v>0.000658516709366942</v>
       </c>
       <c r="J19">
-        <v>0.01889894652316014</v>
+        <v>0.01889894677904689</v>
       </c>
       <c r="K19">
-        <v>0.0006361200220619751</v>
+        <v>0.0006361200203707929</v>
       </c>
       <c r="L19">
-        <v>0.003557495518889721</v>
+        <v>0.003557495591551873</v>
       </c>
       <c r="M19">
-        <v>3.287165085289295E-05</v>
+        <v>3.287165328200608E-05</v>
       </c>
       <c r="N19">
-        <v>4.902036838290296E-08</v>
+        <v>4.902036841088705E-08</v>
       </c>
       <c r="O19">
-        <v>3.304747110458103E-05</v>
+        <v>3.304747131158404E-05</v>
       </c>
       <c r="P19">
-        <v>0.000417349161572485</v>
+        <v>0.0004173491618250442</v>
       </c>
       <c r="Q19">
-        <v>0.0006436004086737003</v>
+        <v>0.000643600408941701</v>
       </c>
       <c r="R19">
-        <v>0.005403991845166073</v>
+        <v>0.005403991845601351</v>
       </c>
       <c r="S19">
-        <v>2.107249925595351E-10</v>
+        <v>2.107249936082213E-10</v>
       </c>
       <c r="T19">
-        <v>6.153227794845783E-08</v>
+        <v>6.15322782681647E-08</v>
       </c>
       <c r="U19">
-        <v>0.005326054344058451</v>
+        <v>0.005326054350007556</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0003588603259770816</v>
+        <v>-0.0003588603235371381</v>
       </c>
       <c r="B20">
-        <v>-0.1647369137057836</v>
+        <v>-0.1647369132261368</v>
       </c>
       <c r="C20">
-        <v>-0.03997487858937464</v>
+        <v>-0.03997487850700047</v>
       </c>
       <c r="D20">
-        <v>-0.05149222293942116</v>
+        <v>-0.0514922228301204</v>
       </c>
       <c r="E20">
-        <v>-1.249387728252385</v>
+        <v>-1.249387717762228</v>
       </c>
       <c r="F20">
-        <v>-0.04853409791575725</v>
+        <v>-0.04853409779569298</v>
       </c>
       <c r="G20">
-        <v>-5.554678853471037E-05</v>
+        <v>-5.554678828282644E-05</v>
       </c>
       <c r="H20">
-        <v>-3.397164198836721E-05</v>
+        <v>-3.3971641963621E-05</v>
       </c>
       <c r="I20">
-        <v>-0.009524400994026317</v>
+        <v>-0.009524400940191524</v>
       </c>
       <c r="J20">
-        <v>-0.640298579805186</v>
+        <v>-0.6402985781571137</v>
       </c>
       <c r="K20">
-        <v>-0.03219664019715276</v>
+        <v>-0.03219664020071</v>
       </c>
       <c r="L20">
-        <v>-0.009610008086164358</v>
+        <v>-0.009609956740488744</v>
       </c>
       <c r="M20">
-        <v>-0.0002753880904931472</v>
+        <v>-0.0002753880732439775</v>
       </c>
       <c r="N20">
-        <v>-9.526177845913757E-08</v>
+        <v>-9.526177834260949E-08</v>
       </c>
       <c r="O20">
-        <v>-0.0002486555967316999</v>
+        <v>-0.0002486555955584544</v>
       </c>
       <c r="P20">
-        <v>-0.000248943853941964</v>
+        <v>-0.0002489438521096844</v>
       </c>
       <c r="Q20">
-        <v>-0.0002687333446804483</v>
+        <v>-0.0002687333427578141</v>
       </c>
       <c r="R20">
-        <v>-0.0009053003810560189</v>
+        <v>-0.0009053003784646277</v>
       </c>
       <c r="S20">
-        <v>-7.419535788590303E-10</v>
+        <v>-7.41953120612831E-10</v>
       </c>
       <c r="T20">
-        <v>-4.893986217320803E-07</v>
+        <v>-4.893986199875368E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01596443665554229</v>
+        <v>-0.01596443662069802</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.000675425344568323</v>
+        <v>-0.0006754253420723434</v>
       </c>
       <c r="B21">
-        <v>-0.6003455973116789</v>
+        <v>-0.6003455965765772</v>
       </c>
       <c r="C21">
-        <v>-0.07474441926602965</v>
+        <v>-0.07474441916539386</v>
       </c>
       <c r="D21">
-        <v>-0.09792270806544957</v>
+        <v>-0.09792270793198554</v>
       </c>
       <c r="E21">
-        <v>-1.483743819192543</v>
+        <v>-1.483743807433285</v>
       </c>
       <c r="F21">
-        <v>-0.2011402871662241</v>
+        <v>-0.201140286989917</v>
       </c>
       <c r="G21">
-        <v>-0.0001090717365235345</v>
+        <v>-0.0001090717361570187</v>
       </c>
       <c r="H21">
-        <v>-8.143851371580744E-05</v>
+        <v>-8.143851368259047E-05</v>
       </c>
       <c r="I21">
-        <v>-0.01684666866268544</v>
+        <v>-0.01684666856794186</v>
       </c>
       <c r="J21">
-        <v>-1.468389147282839</v>
+        <v>-1.468389145195626</v>
       </c>
       <c r="K21">
-        <v>-0.02414078613519907</v>
+        <v>-0.02414078613758371</v>
       </c>
       <c r="L21">
-        <v>0.04254342305986222</v>
+        <v>0.04254333922720848</v>
       </c>
       <c r="M21">
-        <v>-0.0001798801980654545</v>
+        <v>-0.0001798801720946051</v>
       </c>
       <c r="N21">
-        <v>-1.291791067194892E-07</v>
+        <v>-1.291791066148427E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0004922860615543727</v>
+        <v>-0.0004922860602290249</v>
       </c>
       <c r="P21">
-        <v>-0.0005867229382142051</v>
+        <v>-0.0005867229363734008</v>
       </c>
       <c r="Q21">
-        <v>-0.0006631588346144829</v>
+        <v>-0.000663158832650538</v>
       </c>
       <c r="R21">
-        <v>-0.002564824275648664</v>
+        <v>-0.0025648242722338</v>
       </c>
       <c r="S21">
-        <v>-1.685098531548765E-09</v>
+        <v>-1.685099272402764E-09</v>
       </c>
       <c r="T21">
-        <v>-1.263970588883394E-06</v>
+        <v>-1.263970586568226E-06</v>
       </c>
       <c r="U21">
-        <v>-0.06971537249446151</v>
+        <v>-0.06971537244545471</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002225502104055642</v>
+        <v>0.002225502118116832</v>
       </c>
       <c r="B22">
-        <v>0.6030907458738971</v>
+        <v>0.603090749198027</v>
       </c>
       <c r="C22">
-        <v>0.03776600743340193</v>
+        <v>0.03776600805805938</v>
       </c>
       <c r="D22">
-        <v>0.04919996866731003</v>
+        <v>0.04919996949549198</v>
       </c>
       <c r="E22">
-        <v>3.719783775090326</v>
+        <v>3.719783861441834</v>
       </c>
       <c r="F22">
-        <v>0.1626205622632023</v>
+        <v>0.162620562889375</v>
       </c>
       <c r="G22">
-        <v>0.0003095745871784514</v>
+        <v>0.0003095745887756337</v>
       </c>
       <c r="H22">
-        <v>3.676146045811156E-05</v>
+        <v>3.676146060882645E-05</v>
       </c>
       <c r="I22">
-        <v>0.02505042709028966</v>
+        <v>0.0250504272159301</v>
       </c>
       <c r="J22">
-        <v>0.6841580598837149</v>
+        <v>0.684158073665349</v>
       </c>
       <c r="K22">
-        <v>0.06256018032971465</v>
+        <v>0.06256018048983882</v>
       </c>
       <c r="L22">
-        <v>0.03526749224714044</v>
+        <v>0.0352677734261758</v>
       </c>
       <c r="M22">
-        <v>0.001041098880756696</v>
+        <v>0.001041098927761142</v>
       </c>
       <c r="N22">
-        <v>2.164227942330363E-07</v>
+        <v>2.164227947918363E-07</v>
       </c>
       <c r="O22">
-        <v>0.001568722515728936</v>
+        <v>0.001568722522036028</v>
       </c>
       <c r="P22">
-        <v>0.001954581816790583</v>
+        <v>0.001954581827068835</v>
       </c>
       <c r="Q22">
-        <v>0.002013852663971021</v>
+        <v>0.002013852674883682</v>
       </c>
       <c r="R22">
-        <v>0.004526912668046652</v>
+        <v>0.004526912680693771</v>
       </c>
       <c r="S22">
-        <v>3.014590541266464E-09</v>
+        <v>3.014593053486748E-09</v>
       </c>
       <c r="T22">
-        <v>1.797458756468812E-06</v>
+        <v>1.797458767115702E-06</v>
       </c>
       <c r="U22">
-        <v>0.04205393726129956</v>
+        <v>0.04205393738707214</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.0002840855632939186</v>
+        <v>0.0002840855633925677</v>
       </c>
       <c r="B23">
-        <v>0.1916309147539628</v>
+        <v>0.1916309147944973</v>
       </c>
       <c r="C23">
-        <v>0.005273320559490146</v>
+        <v>0.005273320571110778</v>
       </c>
       <c r="D23">
-        <v>0.008911897605801099</v>
+        <v>0.008911897621163675</v>
       </c>
       <c r="E23">
-        <v>3.646842368432486</v>
+        <v>3.646842369788935</v>
       </c>
       <c r="F23">
-        <v>0.06090754593950603</v>
+        <v>0.06090754594606101</v>
       </c>
       <c r="G23">
-        <v>1.904772667563836E-05</v>
+        <v>1.904772668705969E-05</v>
       </c>
       <c r="H23">
-        <v>5.182440336609607E-06</v>
+        <v>5.182440339058687E-06</v>
       </c>
       <c r="I23">
-        <v>0.002546036327936699</v>
+        <v>0.002546036327119644</v>
       </c>
       <c r="J23">
-        <v>0.1602094905592393</v>
+        <v>0.1602094908051343</v>
       </c>
       <c r="K23">
-        <v>0.0008264981628166267</v>
+        <v>0.0008264981649232408</v>
       </c>
       <c r="L23">
-        <v>0.007829169683203062</v>
+        <v>0.007829167655316792</v>
       </c>
       <c r="M23">
-        <v>0.0008259585479214023</v>
+        <v>0.0008259585486448897</v>
       </c>
       <c r="N23">
-        <v>8.549886572163537E-08</v>
+        <v>8.549886573466874E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001606574448193244</v>
+        <v>0.0001606574448066926</v>
       </c>
       <c r="P23">
-        <v>0.0003520111306530463</v>
+        <v>0.0003520111307264526</v>
       </c>
       <c r="Q23">
-        <v>0.0003932514922719513</v>
+        <v>0.0003932514923514626</v>
       </c>
       <c r="R23">
-        <v>0.0002821605894403226</v>
+        <v>0.0002821605896200479</v>
       </c>
       <c r="S23">
-        <v>7.760621942044413E-10</v>
+        <v>7.760621763809959E-10</v>
       </c>
       <c r="T23">
-        <v>3.248031168694782E-07</v>
+        <v>3.248031169529777E-07</v>
       </c>
       <c r="U23">
-        <v>0.02566646439782464</v>
+        <v>0.02566646439918752</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390711578602</v>
+        <v>0.0001987390739344696</v>
       </c>
       <c r="B24">
-        <v>0.01638158822804578</v>
+        <v>0.01638158858840232</v>
       </c>
       <c r="C24">
-        <v>0.0002372667366199457</v>
+        <v>0.0002372668504647404</v>
       </c>
       <c r="D24">
-        <v>0.0003729306277176879</v>
+        <v>0.0003729307766910825</v>
       </c>
       <c r="E24">
-        <v>0.1010706026114365</v>
+        <v>0.1010706116093804</v>
       </c>
       <c r="F24">
-        <v>0.004679762066129654</v>
+        <v>0.004679762133218303</v>
       </c>
       <c r="G24">
-        <v>9.647172839999497E-07</v>
+        <v>9.647175374383898E-07</v>
       </c>
       <c r="H24">
-        <v>3.712468953494228E-07</v>
+        <v>3.712469166798041E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929661102365051</v>
+        <v>0.0009929663434816488</v>
       </c>
       <c r="J24">
-        <v>0.005452344271093155</v>
+        <v>0.005452345841414491</v>
       </c>
       <c r="K24">
-        <v>0.0001450796206944476</v>
+        <v>0.0001450796378696072</v>
       </c>
       <c r="L24">
-        <v>0.0002847320839648627</v>
+        <v>0.0002847320843450604</v>
       </c>
       <c r="M24">
-        <v>0.0001673101403458082</v>
+        <v>0.0001673101792454538</v>
       </c>
       <c r="N24">
-        <v>7.189255151584311E-09</v>
+        <v>7.189255239999795E-09</v>
       </c>
       <c r="O24">
-        <v>6.630469943179263E-05</v>
+        <v>6.630470052678946E-05</v>
       </c>
       <c r="P24">
-        <v>0.0002234007528525984</v>
+        <v>0.0002234007536051903</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348884804587</v>
+        <v>0.0002271348892329572</v>
       </c>
       <c r="R24">
-        <v>2.01105002984098E-05</v>
+        <v>2.011050490451726E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366469305791E-10</v>
+        <v>1.218366489958423E-10</v>
       </c>
       <c r="T24">
-        <v>6.165440926478706E-08</v>
+        <v>6.165441143057473E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188064694447</v>
+        <v>0.002024188082936331</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>0.003211433199819667</v>
+        <v>0.00321143322816275</v>
       </c>
       <c r="B25">
-        <v>1.192351062727687</v>
+        <v>1.192351069364136</v>
       </c>
       <c r="C25">
-        <v>0.04087487018545594</v>
+        <v>0.04087487155817493</v>
       </c>
       <c r="D25">
-        <v>0.05159469726985712</v>
+        <v>0.05159469908125514</v>
       </c>
       <c r="E25">
-        <v>7.351983393866012</v>
+        <v>7.351983600404934</v>
       </c>
       <c r="F25">
-        <v>0.2589782409952899</v>
+        <v>0.2589782423601825</v>
       </c>
       <c r="G25">
-        <v>0.0005037090519338206</v>
+        <v>0.000503709056190748</v>
       </c>
       <c r="H25">
-        <v>-0.00246259994205911</v>
+        <v>-0.002462599941909706</v>
       </c>
       <c r="I25">
-        <v>0.02425252822765734</v>
+        <v>0.02425252835522599</v>
       </c>
       <c r="J25">
-        <v>2.397393963164784</v>
+        <v>2.397393990318453</v>
       </c>
       <c r="K25">
-        <v>0.05817103528075913</v>
+        <v>0.05817103553743733</v>
       </c>
       <c r="L25">
-        <v>2.002550013353894</v>
+        <v>2.002550126982742</v>
       </c>
       <c r="M25">
-        <v>0.001342251441042272</v>
+        <v>0.001342251438478313</v>
       </c>
       <c r="N25">
-        <v>3.000385275410525E-07</v>
+        <v>3.000385290232881E-07</v>
       </c>
       <c r="O25">
-        <v>0.002814345973725132</v>
+        <v>0.002814345986828934</v>
       </c>
       <c r="P25">
-        <v>0.004199702778391406</v>
+        <v>0.004199702793282408</v>
       </c>
       <c r="Q25">
-        <v>0.004308237640817151</v>
+        <v>0.004308237656972181</v>
       </c>
       <c r="R25">
-        <v>0.06643524724471155</v>
+        <v>0.06643524727574265</v>
       </c>
       <c r="S25">
-        <v>2.278455734029988E-08</v>
+        <v>2.278455838197916E-08</v>
       </c>
       <c r="T25">
-        <v>3.65568728769388E-06</v>
+        <v>3.655687308781826E-06</v>
       </c>
       <c r="U25">
-        <v>0.08608849724507592</v>
+        <v>0.08608849749710945</v>
       </c>
     </row>
   </sheetData>

--- a/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
@@ -1937,67 +1937,67 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390739344696</v>
+        <v>0.0001987390843478038</v>
       </c>
       <c r="B24">
-        <v>0.01638158858840232</v>
+        <v>0.01638159337844064</v>
       </c>
       <c r="C24">
-        <v>0.0002372668504647404</v>
+        <v>0.0002372668790329619</v>
       </c>
       <c r="D24">
-        <v>0.0003729307766910825</v>
+        <v>0.0003729308289485802</v>
       </c>
       <c r="E24">
-        <v>0.1010706116093804</v>
+        <v>0.101070621311952</v>
       </c>
       <c r="F24">
-        <v>0.004679762133218303</v>
+        <v>0.004679763011068889</v>
       </c>
       <c r="G24">
-        <v>9.647175374383898E-07</v>
+        <v>9.64718299626365E-07</v>
       </c>
       <c r="H24">
-        <v>3.712469166798041E-07</v>
+        <v>3.7124702898015E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929663434816488</v>
+        <v>0.0009929675931354899</v>
       </c>
       <c r="J24">
-        <v>0.005452345841414491</v>
+        <v>0.005452347027663387</v>
       </c>
       <c r="K24">
-        <v>0.0001450796378696072</v>
+        <v>0.000145079733344961</v>
       </c>
       <c r="L24">
-        <v>0.0002847320843450604</v>
+        <v>0.0002847349905737257</v>
       </c>
       <c r="M24">
-        <v>0.0001673101792454538</v>
+        <v>0.0001673103214456696</v>
       </c>
       <c r="N24">
-        <v>7.189255239999795E-09</v>
+        <v>7.189256577697475E-09</v>
       </c>
       <c r="O24">
-        <v>6.630470052678946E-05</v>
+        <v>6.630470781470491E-05</v>
       </c>
       <c r="P24">
-        <v>0.0002234007536051903</v>
+        <v>0.0002234007691310949</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348892329572</v>
+        <v>0.0002271349055787365</v>
       </c>
       <c r="R24">
-        <v>2.011050490451726E-05</v>
+        <v>2.011052011621604E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366489958423E-10</v>
+        <v>1.218366931705575E-10</v>
       </c>
       <c r="T24">
-        <v>6.165441143057473E-08</v>
+        <v>6.165442492655605E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188082936331</v>
+        <v>0.002024188367345912</v>
       </c>
     </row>
     <row r="25" spans="1:21">

--- a/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_uniquie_sterilization_CONSQ_recipe.xlsx
@@ -507,1432 +507,1432 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0002036580964148155</v>
+        <v>-0.0002036580948577247</v>
       </c>
       <c r="B2">
-        <v>-3.040814378630965</v>
+        <v>-3.040814378259848</v>
       </c>
       <c r="C2">
-        <v>-0.1585628625628443</v>
+        <v>-0.1585628624156255</v>
       </c>
       <c r="D2">
-        <v>-0.2295784820663863</v>
+        <v>-0.2295784818698061</v>
       </c>
       <c r="E2">
-        <v>-8.828092812023712</v>
+        <v>-8.828092787672601</v>
       </c>
       <c r="F2">
-        <v>-0.01102871281219746</v>
+        <v>-0.01102871274395519</v>
       </c>
       <c r="G2">
-        <v>-4.700623792441139E-06</v>
+        <v>-4.700623423616618E-06</v>
       </c>
       <c r="H2">
-        <v>-4.725445056650031E-06</v>
+        <v>-4.725445042772196E-06</v>
       </c>
       <c r="I2">
-        <v>-0.007043862196613287</v>
+        <v>-0.007043862175234315</v>
       </c>
       <c r="J2">
-        <v>-1.913075143265912</v>
+        <v>-1.913075140131003</v>
       </c>
       <c r="K2">
-        <v>-2.86331646295437E-05</v>
+        <v>-2.863317960806526E-05</v>
       </c>
       <c r="L2">
-        <v>0.0006926543817823173</v>
+        <v>0.0006926485297147258</v>
       </c>
       <c r="M2">
-        <v>-0.0002833099141649863</v>
+        <v>-0.0002833099015523456</v>
       </c>
       <c r="N2">
-        <v>-2.358692475916908E-07</v>
+        <v>-2.358692474756725E-07</v>
       </c>
       <c r="O2">
-        <v>-7.002033556024788E-05</v>
+        <v>-7.002033488405977E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004926923058657701</v>
+        <v>-0.0004926923054666882</v>
       </c>
       <c r="Q2">
-        <v>-0.0004978085145638258</v>
+        <v>-0.000497808514203283</v>
       </c>
       <c r="R2">
-        <v>-0.001299525937944381</v>
+        <v>-0.001299525935214763</v>
       </c>
       <c r="S2">
-        <v>-8.853898347724981E-09</v>
+        <v>-8.853898397608616E-09</v>
       </c>
       <c r="T2">
-        <v>-3.329123551265299E-06</v>
+        <v>-3.329123549704131E-06</v>
       </c>
       <c r="U2">
-        <v>-0.003800327454356514</v>
+        <v>-0.003800327449052378</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.000173456191232909</v>
+        <v>-0.0001734561920635661</v>
       </c>
       <c r="B3">
-        <v>-2.568417787538951</v>
+        <v>-2.568417787612214</v>
       </c>
       <c r="C3">
-        <v>-0.133977600587075</v>
+        <v>-0.133977600569471</v>
       </c>
       <c r="D3">
-        <v>-0.1939677476535494</v>
+        <v>-0.1939677476316282</v>
       </c>
       <c r="E3">
-        <v>-7.457176034927115</v>
+        <v>-7.457176035542785</v>
       </c>
       <c r="F3">
-        <v>-0.009495873054873386</v>
+        <v>-0.009495873082663484</v>
       </c>
       <c r="G3">
-        <v>-4.302703601745015E-06</v>
+        <v>-4.302703624312678E-06</v>
       </c>
       <c r="H3">
-        <v>-4.005811047125375E-06</v>
+        <v>-4.005811050021374E-06</v>
       </c>
       <c r="I3">
-        <v>-0.005936573370154989</v>
+        <v>-0.005936573398509819</v>
       </c>
       <c r="J3">
-        <v>-1.616352149396209</v>
+        <v>-1.616352149322509</v>
       </c>
       <c r="K3">
-        <v>-1.813076167197919E-05</v>
+        <v>-1.813077764658941E-05</v>
       </c>
       <c r="L3">
-        <v>0.0005789225634227728</v>
+        <v>0.000578927613184335</v>
       </c>
       <c r="M3">
-        <v>-0.0002663365865961796</v>
+        <v>-0.0002663365803844155</v>
       </c>
       <c r="N3">
-        <v>-1.99267271186648E-07</v>
+        <v>-1.992672712690362E-07</v>
       </c>
       <c r="O3">
-        <v>-6.111853756187084E-05</v>
+        <v>-6.111853812410247E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0004178069537732044</v>
+        <v>-0.0004178069554197239</v>
       </c>
       <c r="Q3">
-        <v>-0.0004223416283325379</v>
+        <v>-0.0004223416300413505</v>
       </c>
       <c r="R3">
-        <v>-0.001257067179781106</v>
+        <v>-0.001257067180073658</v>
       </c>
       <c r="S3">
-        <v>-7.479295869155851E-09</v>
+        <v>-7.479295824939802E-09</v>
       </c>
       <c r="T3">
-        <v>-2.81360108740956E-06</v>
+        <v>-2.813601087910675E-06</v>
       </c>
       <c r="U3">
-        <v>-0.003260262422907808</v>
+        <v>-0.003260262434119928</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.007664669800111984</v>
+        <v>-0.007664669704963823</v>
       </c>
       <c r="B4">
-        <v>-0.9093203389203001</v>
+        <v>-0.9093203241145223</v>
       </c>
       <c r="C4">
-        <v>-0.172746372743214</v>
+        <v>-0.1727463708334087</v>
       </c>
       <c r="D4">
-        <v>-0.2422503595988995</v>
+        <v>-0.2422503570199909</v>
       </c>
       <c r="E4">
-        <v>-60.9364451534123</v>
+        <v>-60.93644476096742</v>
       </c>
       <c r="F4">
-        <v>-0.301044989666273</v>
+        <v>-0.3010449856205252</v>
       </c>
       <c r="G4">
-        <v>-0.0003851869618529035</v>
+        <v>-0.0003851869575770208</v>
       </c>
       <c r="H4">
-        <v>-6.478146792713326E-06</v>
+        <v>-6.478146380139006E-06</v>
       </c>
       <c r="I4">
-        <v>-0.05528266994357241</v>
+        <v>-0.05528266859448538</v>
       </c>
       <c r="J4">
-        <v>-5.489513613471322</v>
+        <v>-5.489513569364598</v>
       </c>
       <c r="K4">
-        <v>0.01757161616005106</v>
+        <v>0.0175716162261537</v>
       </c>
       <c r="L4">
-        <v>0.02884466766704336</v>
+        <v>0.02884472486705121</v>
       </c>
       <c r="M4">
-        <v>0.02437850197970919</v>
+        <v>0.02437850212470585</v>
       </c>
       <c r="N4">
-        <v>-2.76031658531257E-07</v>
+        <v>-2.760316512788894E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002471806599505271</v>
+        <v>-0.002471806554630986</v>
       </c>
       <c r="P4">
-        <v>-0.002334687980228357</v>
+        <v>-0.002334687856189963</v>
       </c>
       <c r="Q4">
-        <v>-0.00248492476413017</v>
+        <v>-0.00248492463645515</v>
       </c>
       <c r="R4">
-        <v>-0.001242215641742919</v>
+        <v>-0.001242215599275455</v>
       </c>
       <c r="S4">
-        <v>-5.335989300490922E-09</v>
+        <v>-5.335988705701032E-09</v>
       </c>
       <c r="T4">
-        <v>-3.835168643146285E-06</v>
+        <v>-3.835168586454349E-06</v>
       </c>
       <c r="U4">
-        <v>-0.08808345469082754</v>
+        <v>-0.08808345322631045</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.007834814702798839</v>
+        <v>0.008182014702238012</v>
       </c>
       <c r="B5">
-        <v>2.681058203299153</v>
+        <v>2.74866167019394</v>
       </c>
       <c r="C5">
-        <v>0.1868247595767374</v>
+        <v>0.1924499535105947</v>
       </c>
       <c r="D5">
-        <v>0.2435841983468091</v>
+        <v>0.2511552791176929</v>
       </c>
       <c r="E5">
-        <v>8.932730134516405</v>
+        <v>9.294618662645252</v>
       </c>
       <c r="F5">
-        <v>0.812305646695489</v>
+        <v>0.8325850897423994</v>
       </c>
       <c r="G5">
-        <v>0.001638526003397677</v>
+        <v>0.00165675028637104</v>
       </c>
       <c r="H5">
-        <v>0.0002723741869557615</v>
+        <v>0.0002772549022823982</v>
       </c>
       <c r="I5">
-        <v>0.1539561403597147</v>
+        <v>0.156229367250392</v>
       </c>
       <c r="J5">
-        <v>3.772734122739809</v>
+        <v>3.912257224907668</v>
       </c>
       <c r="K5">
-        <v>0.2477194249377225</v>
+        <v>0.2478669963983596</v>
       </c>
       <c r="L5">
-        <v>0.3893598145424548</v>
+        <v>0.4121969222517439</v>
       </c>
       <c r="M5">
-        <v>0.007111514245374949</v>
+        <v>0.009302651139502962</v>
       </c>
       <c r="N5">
-        <v>8.136901313913812E-07</v>
+        <v>8.287957978404745E-07</v>
       </c>
       <c r="O5">
-        <v>0.004318541129314615</v>
+        <v>0.004451111750529944</v>
       </c>
       <c r="P5">
-        <v>0.004691227868467332</v>
+        <v>0.004955717249328435</v>
       </c>
       <c r="Q5">
-        <v>0.005041277932055596</v>
+        <v>0.005325449820586329</v>
       </c>
       <c r="R5">
-        <v>0.0797241262917448</v>
+        <v>0.08004008993341012</v>
       </c>
       <c r="S5">
-        <v>1.462737819859875E-08</v>
+        <v>1.515072112324982E-08</v>
       </c>
       <c r="T5">
-        <v>6.757167296510452E-06</v>
+        <v>6.943565526129385E-06</v>
       </c>
       <c r="U5">
-        <v>0.2296180274119561</v>
+        <v>0.2368158260212902</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.08981717095600451</v>
+        <v>0.08981716790912915</v>
       </c>
       <c r="B6">
-        <v>20.59195285525304</v>
+        <v>20.59195219425784</v>
       </c>
       <c r="C6">
-        <v>0.4919299710919784</v>
+        <v>0.491929840154817</v>
       </c>
       <c r="D6">
-        <v>0.6888602348107765</v>
+        <v>0.6888600627629038</v>
       </c>
       <c r="E6">
-        <v>17.46935854667902</v>
+        <v>17.46934222800358</v>
       </c>
       <c r="F6">
-        <v>4.469172588008254</v>
+        <v>4.46917241977026</v>
       </c>
       <c r="G6">
-        <v>0.006761206233131086</v>
+        <v>0.006761205879008842</v>
       </c>
       <c r="H6">
-        <v>0.0004877493902394418</v>
+        <v>0.0004877493635045871</v>
       </c>
       <c r="I6">
-        <v>4.028008060138639</v>
+        <v>4.028007988521715</v>
       </c>
       <c r="J6">
-        <v>17.2156738852042</v>
+        <v>17.2156715796688</v>
       </c>
       <c r="K6">
-        <v>0.1093007528423721</v>
+        <v>0.1093007506626241</v>
       </c>
       <c r="L6">
-        <v>0.1981734598031865</v>
+        <v>0.198173638770386</v>
       </c>
       <c r="M6">
-        <v>0.252293162377113</v>
+        <v>0.2522931439480295</v>
       </c>
       <c r="N6">
-        <v>3.887161137160036E-06</v>
+        <v>3.887160932250805E-06</v>
       </c>
       <c r="O6">
-        <v>0.04056656422038929</v>
+        <v>0.04056656264969774</v>
       </c>
       <c r="P6">
-        <v>0.05319574867956429</v>
+        <v>0.05319574625079292</v>
       </c>
       <c r="Q6">
-        <v>0.05450811210422117</v>
+        <v>0.05450810954547938</v>
       </c>
       <c r="R6">
-        <v>0.1170714432097637</v>
+        <v>0.1170714392794335</v>
       </c>
       <c r="S6">
-        <v>9.064879162802158E-08</v>
+        <v>9.064878985735612E-08</v>
       </c>
       <c r="T6">
-        <v>6.220344362974511E-05</v>
+        <v>6.220344125470236E-05</v>
       </c>
       <c r="U6">
-        <v>0.8057023652921098</v>
+        <v>0.8057023189168045</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959575056493576</v>
+        <v>0.006959574554093207</v>
       </c>
       <c r="B7">
-        <v>0.6155804468884083</v>
+        <v>0.6155803755526432</v>
       </c>
       <c r="C7">
-        <v>0.2690751184765249</v>
+        <v>0.2690750971794216</v>
       </c>
       <c r="D7">
-        <v>0.3180249200359723</v>
+        <v>0.3180248913331277</v>
       </c>
       <c r="E7">
-        <v>24.63806355575309</v>
+        <v>24.63805922010178</v>
       </c>
       <c r="F7">
-        <v>0.1593620709251181</v>
+        <v>0.1593620545913459</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002210277415</v>
+        <v>-0.0002195002758057556</v>
       </c>
       <c r="H7">
-        <v>0.001596620083725894</v>
+        <v>0.001596620081470566</v>
       </c>
       <c r="I7">
-        <v>0.03259465520865319</v>
+        <v>0.03259464417641432</v>
       </c>
       <c r="J7">
-        <v>1.379421882334058</v>
+        <v>1.379421383504957</v>
       </c>
       <c r="K7">
-        <v>0.01479103857534321</v>
+        <v>0.01479103888311202</v>
       </c>
       <c r="L7">
-        <v>2.123277745658136</v>
+        <v>2.123278725140592</v>
       </c>
       <c r="M7">
-        <v>0.003915595855982855</v>
+        <v>0.003915595196733121</v>
       </c>
       <c r="N7">
-        <v>-2.205771332258969E-06</v>
+        <v>-2.205771346500262E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217877605857</v>
+        <v>0.002887217701161564</v>
       </c>
       <c r="P7">
-        <v>0.004960198483843617</v>
+        <v>0.004960198474353467</v>
       </c>
       <c r="Q7">
-        <v>0.005064426422034559</v>
+        <v>0.005064426406942872</v>
       </c>
       <c r="R7">
-        <v>0.006986424207602282</v>
+        <v>0.006986423739216202</v>
       </c>
       <c r="S7">
-        <v>2.303649305666822E-08</v>
+        <v>2.303650133907316E-08</v>
       </c>
       <c r="T7">
-        <v>2.826954144572017E-06</v>
+        <v>2.826953816196377E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441905400924</v>
+        <v>0.02732441638044878</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>-0.08981717095600451</v>
+        <v>-0.08981716790912915</v>
       </c>
       <c r="B8">
-        <v>-20.59195285525304</v>
+        <v>-20.59195219425784</v>
       </c>
       <c r="C8">
-        <v>-0.4919299710919784</v>
+        <v>-0.4919298401548162</v>
       </c>
       <c r="D8">
-        <v>-0.6888602348107767</v>
+        <v>-0.6888600627629023</v>
       </c>
       <c r="E8">
-        <v>-17.46935854667903</v>
+        <v>-17.46934222800312</v>
       </c>
       <c r="F8">
-        <v>-4.469172588008254</v>
+        <v>-4.46917241977026</v>
       </c>
       <c r="G8">
-        <v>-0.006761206233131086</v>
+        <v>-0.006761205879008841</v>
       </c>
       <c r="H8">
-        <v>-0.0004877493902394418</v>
+        <v>-0.000487749363504587</v>
       </c>
       <c r="I8">
-        <v>-4.028008060138639</v>
+        <v>-4.028007988521713</v>
       </c>
       <c r="J8">
-        <v>-17.2156738852042</v>
+        <v>-17.21567157966867</v>
       </c>
       <c r="K8">
-        <v>-0.1093007528424075</v>
+        <v>-0.1093007506614444</v>
       </c>
       <c r="L8">
-        <v>-0.1981734598031865</v>
+        <v>-0.198173638770386</v>
       </c>
       <c r="M8">
-        <v>-0.252293162377113</v>
+        <v>-0.2522931439480295</v>
       </c>
       <c r="N8">
-        <v>-3.887161137160036E-06</v>
+        <v>-3.887160932250805E-06</v>
       </c>
       <c r="O8">
-        <v>-0.04056656422038929</v>
+        <v>-0.04056656264969773</v>
       </c>
       <c r="P8">
-        <v>-0.05319574867956429</v>
+        <v>-0.05319574625079292</v>
       </c>
       <c r="Q8">
-        <v>-0.05450811210422117</v>
+        <v>-0.05450810954547938</v>
       </c>
       <c r="R8">
-        <v>-0.1170714432097637</v>
+        <v>-0.1170714392794335</v>
       </c>
       <c r="S8">
-        <v>-9.064879162802158E-08</v>
+        <v>-9.064878985735612E-08</v>
       </c>
       <c r="T8">
-        <v>-6.220344362974511E-05</v>
+        <v>-6.220344125470231E-05</v>
       </c>
       <c r="U8">
-        <v>-0.8057023652921098</v>
+        <v>-0.8057023189168045</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.008446596981003415</v>
+        <v>0.008446596598464921</v>
       </c>
       <c r="B9">
-        <v>0.8152284910452315</v>
+        <v>0.8152284281316811</v>
       </c>
       <c r="C9">
-        <v>0.5096467128111043</v>
+        <v>0.5096466927649198</v>
       </c>
       <c r="D9">
-        <v>0.6197107250980849</v>
+        <v>0.6197106981455074</v>
       </c>
       <c r="E9">
-        <v>34.24860949026518</v>
+        <v>34.24860555966887</v>
       </c>
       <c r="F9">
-        <v>0.1986026032548784</v>
+        <v>0.198602589011969</v>
       </c>
       <c r="G9">
-        <v>0.0004588962076768931</v>
+        <v>0.0004588961548647513</v>
       </c>
       <c r="H9">
-        <v>0.001235671650294431</v>
+        <v>0.001235671648526128</v>
       </c>
       <c r="I9">
-        <v>0.1042438674286446</v>
+        <v>0.1042438562790867</v>
       </c>
       <c r="J9">
-        <v>4.278608711301215</v>
+        <v>4.278608252447508</v>
       </c>
       <c r="K9">
-        <v>0.01762965127049675</v>
+        <v>0.01762965209142567</v>
       </c>
       <c r="L9">
-        <v>2.822850559986555</v>
+        <v>2.822853465443171</v>
       </c>
       <c r="M9">
-        <v>0.002063281755992299</v>
+        <v>0.002063281137984221</v>
       </c>
       <c r="N9">
-        <v>1.929764471774065E-06</v>
+        <v>1.929764466470125E-06</v>
       </c>
       <c r="O9">
-        <v>0.00311594289564557</v>
+        <v>0.003115942773773384</v>
       </c>
       <c r="P9">
-        <v>0.007495161904080102</v>
+        <v>0.007495162061093849</v>
       </c>
       <c r="Q9">
-        <v>0.007669981362588837</v>
+        <v>0.007669981523098855</v>
       </c>
       <c r="R9">
-        <v>0.008047584716484039</v>
+        <v>0.008047584266392798</v>
       </c>
       <c r="S9">
-        <v>3.121153375907522E-08</v>
+        <v>3.121155921643525E-08</v>
       </c>
       <c r="T9">
-        <v>4.062328394275667E-06</v>
+        <v>4.06232811693799E-06</v>
       </c>
       <c r="U9">
-        <v>0.05658618434008073</v>
+        <v>0.05658618260092793</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0008140106372463976</v>
+        <v>0.0008140105734366491</v>
       </c>
       <c r="B10">
-        <v>0.6017902319707945</v>
+        <v>0.6017902146362422</v>
       </c>
       <c r="C10">
-        <v>0.01177011776495551</v>
+        <v>0.01177011611045481</v>
       </c>
       <c r="D10">
-        <v>0.01563034072848188</v>
+        <v>0.01563033851784286</v>
       </c>
       <c r="E10">
-        <v>-0.7243128766144866</v>
+        <v>-0.7243131446258237</v>
       </c>
       <c r="F10">
-        <v>-0.01705674715210723</v>
+        <v>-0.01705675251170978</v>
       </c>
       <c r="G10">
-        <v>2.052769273653852E-05</v>
+        <v>2.052769215623988E-05</v>
       </c>
       <c r="H10">
-        <v>0.0002283819098235957</v>
+        <v>0.0002283819099695809</v>
       </c>
       <c r="I10">
-        <v>0.001320371807064367</v>
+        <v>0.001320370291457415</v>
       </c>
       <c r="J10">
-        <v>0.227322494234032</v>
+        <v>0.2273224574033425</v>
       </c>
       <c r="K10">
-        <v>-0.001182083533894446</v>
+        <v>-0.001182082361489402</v>
       </c>
       <c r="L10">
-        <v>-0.2007597755880296</v>
+        <v>-0.2007597092455609</v>
       </c>
       <c r="M10">
-        <v>0.0004241620208492407</v>
+        <v>0.0004241615882365592</v>
       </c>
       <c r="N10">
-        <v>1.15220429823038E-05</v>
+        <v>1.152204297787415E-05</v>
       </c>
       <c r="O10">
-        <v>0.0002738401107984814</v>
+        <v>0.0002738400941486078</v>
       </c>
       <c r="P10">
-        <v>0.002408450032678536</v>
+        <v>0.002408449968124592</v>
       </c>
       <c r="Q10">
-        <v>0.00235045726893198</v>
+        <v>0.002350457200003862</v>
       </c>
       <c r="R10">
-        <v>0.00185916082909585</v>
+        <v>0.001859160802041589</v>
       </c>
       <c r="S10">
-        <v>3.957894236513585E-10</v>
+        <v>3.957899367494266E-10</v>
       </c>
       <c r="T10">
-        <v>7.998542686296691E-07</v>
+        <v>7.998542285376801E-07</v>
       </c>
       <c r="U10">
-        <v>-0.01161362442660229</v>
+        <v>-0.01161362665071837</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0003736670370117968</v>
+        <v>0.0003736670236265459</v>
       </c>
       <c r="B11">
-        <v>0.03547839264996711</v>
+        <v>0.03547839119336183</v>
       </c>
       <c r="C11">
-        <v>0.01735694949010506</v>
+        <v>0.01735694912752184</v>
       </c>
       <c r="D11">
-        <v>0.02142888723070282</v>
+        <v>0.0214288867293498</v>
       </c>
       <c r="E11">
-        <v>1.087724787019524</v>
+        <v>1.087724676813466</v>
       </c>
       <c r="F11">
-        <v>0.008745847548500732</v>
+        <v>0.00874584718955413</v>
       </c>
       <c r="G11">
-        <v>1.429857887653149E-05</v>
+        <v>1.429857806060659E-05</v>
       </c>
       <c r="H11">
-        <v>1.527606212020492E-06</v>
+        <v>1.527606177309269E-06</v>
       </c>
       <c r="I11">
-        <v>0.005329534005845923</v>
+        <v>0.005329533754028084</v>
       </c>
       <c r="J11">
-        <v>0.1728109084831612</v>
+        <v>0.1728108979680844</v>
       </c>
       <c r="K11">
-        <v>8.879002039417204E-05</v>
+        <v>8.878999098001752E-05</v>
       </c>
       <c r="L11">
-        <v>0.1748642152967024</v>
+        <v>0.1748642708366801</v>
       </c>
       <c r="M11">
-        <v>0.0004609133496365998</v>
+        <v>0.0004609133825320697</v>
       </c>
       <c r="N11">
-        <v>1.678931473908757E-07</v>
+        <v>1.678931467098607E-07</v>
       </c>
       <c r="O11">
-        <v>0.0001317687056691184</v>
+        <v>0.0001317687006511694</v>
       </c>
       <c r="P11">
-        <v>0.0004362982595739202</v>
+        <v>0.0004362982526732096</v>
       </c>
       <c r="Q11">
-        <v>0.0004458788793991715</v>
+        <v>0.0004458788722927608</v>
       </c>
       <c r="R11">
-        <v>0.000388122943128193</v>
+        <v>0.0003881229383266267</v>
       </c>
       <c r="S11">
-        <v>1.822862191609051E-09</v>
+        <v>1.822862674679948E-09</v>
       </c>
       <c r="T11">
-        <v>1.742287737089211E-07</v>
+        <v>1.742287659552964E-07</v>
       </c>
       <c r="U11">
-        <v>0.00290556608391896</v>
+        <v>0.002905565992326027</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>7.224247534221235E-05</v>
+        <v>7.224248225968311E-05</v>
       </c>
       <c r="B12">
-        <v>0.04340679235724539</v>
+        <v>0.04340679395347553</v>
       </c>
       <c r="C12">
-        <v>0.001952531827495538</v>
+        <v>0.001952532147838667</v>
       </c>
       <c r="D12">
-        <v>0.002502910458207617</v>
+        <v>0.002502910891933255</v>
       </c>
       <c r="E12">
-        <v>0.1964120250446745</v>
+        <v>0.1964121023085328</v>
       </c>
       <c r="F12">
-        <v>0.013237662865513</v>
+        <v>0.01323766317238254</v>
       </c>
       <c r="G12">
-        <v>7.602150731550431E-06</v>
+        <v>7.602151635933573E-06</v>
       </c>
       <c r="H12">
-        <v>6.696429907364976E-07</v>
+        <v>6.696429644882537E-07</v>
       </c>
       <c r="I12">
-        <v>0.0007412117726897479</v>
+        <v>0.000741212154341494</v>
       </c>
       <c r="J12">
-        <v>0.02944733551888168</v>
+        <v>0.02944734259101699</v>
       </c>
       <c r="K12">
-        <v>0.003003638271915987</v>
+        <v>0.00300363829907789</v>
       </c>
       <c r="L12">
-        <v>0.01437969735235561</v>
+        <v>0.01437969980013662</v>
       </c>
       <c r="M12">
-        <v>4.673563545975961E-05</v>
+        <v>4.673570085724777E-05</v>
       </c>
       <c r="N12">
-        <v>2.328325743300097E-08</v>
+        <v>2.328325727522675E-08</v>
       </c>
       <c r="O12">
-        <v>4.418555483205969E-05</v>
+        <v>4.418555863436435E-05</v>
       </c>
       <c r="P12">
-        <v>9.640463475036409E-05</v>
+        <v>9.640463655503433E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0001018812388729136</v>
+        <v>0.0001018812409767231</v>
       </c>
       <c r="R12">
-        <v>0.0001275625046099808</v>
+        <v>0.0001275625118096162</v>
       </c>
       <c r="S12">
-        <v>2.864811004104044E-10</v>
+        <v>2.864811301026457E-10</v>
       </c>
       <c r="T12">
-        <v>7.764474022479036E-08</v>
+        <v>7.764474699127421E-08</v>
       </c>
       <c r="U12">
-        <v>0.004517339835373143</v>
+        <v>0.004517339891515509</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.007186257393021068</v>
+        <v>0.007186257257551566</v>
       </c>
       <c r="B13">
-        <v>1.423816167713544</v>
+        <v>1.423816161285323</v>
       </c>
       <c r="C13">
-        <v>0.05096823865769642</v>
+        <v>0.0509682388714448</v>
       </c>
       <c r="D13">
-        <v>0.07137129595290782</v>
+        <v>0.07137129609122317</v>
       </c>
       <c r="E13">
-        <v>5.28350589230475</v>
+        <v>5.283505541501667</v>
       </c>
       <c r="F13">
-        <v>0.3596394435076706</v>
+        <v>0.3596394415726625</v>
       </c>
       <c r="G13">
-        <v>0.00248740988797258</v>
+        <v>0.002487409889645779</v>
       </c>
       <c r="H13">
-        <v>0.0001433961883097734</v>
+        <v>0.000143396188174327</v>
       </c>
       <c r="I13">
-        <v>0.09824940764960034</v>
+        <v>0.09824940819688383</v>
       </c>
       <c r="J13">
-        <v>1.817127129228132</v>
+        <v>1.817127111308471</v>
       </c>
       <c r="K13">
-        <v>-0.03405245793694515</v>
+        <v>-0.03405245812574725</v>
       </c>
       <c r="L13">
-        <v>1.822394174768338</v>
+        <v>1.822394367334722</v>
       </c>
       <c r="M13">
-        <v>0.003797877473813883</v>
+        <v>0.003797877986520875</v>
       </c>
       <c r="N13">
-        <v>4.368704369249594E-07</v>
+        <v>4.368704268352014E-07</v>
       </c>
       <c r="O13">
-        <v>0.005826737376911716</v>
+        <v>0.00582673732012268</v>
       </c>
       <c r="P13">
-        <v>0.004006066756924467</v>
+        <v>0.004006066576688986</v>
       </c>
       <c r="Q13">
-        <v>0.00413847356641569</v>
+        <v>0.004138473386746925</v>
       </c>
       <c r="R13">
-        <v>0.01358234293186011</v>
+        <v>0.01358234296566518</v>
       </c>
       <c r="S13">
-        <v>2.397265757874353E-08</v>
+        <v>2.397265921548581E-08</v>
       </c>
       <c r="T13">
-        <v>5.758331750089694E-06</v>
+        <v>5.758331706071859E-06</v>
       </c>
       <c r="U13">
-        <v>0.07279753759284506</v>
+        <v>0.07279753659022525</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004640164429417231</v>
+        <v>0.004640164283988695</v>
       </c>
       <c r="B14">
-        <v>2.136862507999189</v>
+        <v>2.136862495994513</v>
       </c>
       <c r="C14">
-        <v>0.03628000367529827</v>
+        <v>0.03628000101412863</v>
       </c>
       <c r="D14">
-        <v>0.04922742415546593</v>
+        <v>0.04922742055567033</v>
       </c>
       <c r="E14">
-        <v>5.981470493540451</v>
+        <v>5.981469866904878</v>
       </c>
       <c r="F14">
-        <v>1.655948792354743</v>
+        <v>1.655948789921777</v>
       </c>
       <c r="G14">
-        <v>0.0002268687921944749</v>
+        <v>0.0002268687849259886</v>
       </c>
       <c r="H14">
-        <v>2.661409703655143E-05</v>
+        <v>2.661409663660905E-05</v>
       </c>
       <c r="I14">
-        <v>0.04953876826795864</v>
+        <v>0.0495387680749448</v>
       </c>
       <c r="J14">
-        <v>0.8264105842641695</v>
+        <v>0.8264105200164432</v>
       </c>
       <c r="K14">
-        <v>0.03176549728115356</v>
+        <v>0.03176549732454848</v>
       </c>
       <c r="L14">
-        <v>0.02394522443664593</v>
+        <v>0.02394491651758871</v>
       </c>
       <c r="M14">
-        <v>0.002175076716390913</v>
+        <v>0.00217507683497331</v>
       </c>
       <c r="N14">
-        <v>1.604287368277704E-07</v>
+        <v>1.60428727825602E-07</v>
       </c>
       <c r="O14">
-        <v>0.001995633471641595</v>
+        <v>0.001995633405426111</v>
       </c>
       <c r="P14">
-        <v>0.00413485916441835</v>
+        <v>0.004134859015293302</v>
       </c>
       <c r="Q14">
-        <v>0.004473836057225195</v>
+        <v>0.004473835909059955</v>
       </c>
       <c r="R14">
-        <v>0.01576991029126761</v>
+        <v>0.01576991024875975</v>
       </c>
       <c r="S14">
-        <v>8.009726787969509E-09</v>
+        <v>8.009723956864564E-09</v>
       </c>
       <c r="T14">
-        <v>3.628826945005771E-06</v>
+        <v>3.628826876736836E-06</v>
       </c>
       <c r="U14">
-        <v>0.6748054547191882</v>
+        <v>0.6748054541085348</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.01272720783915084</v>
+        <v>0.01272720727404272</v>
       </c>
       <c r="B15">
-        <v>7.03257623569086</v>
+        <v>7.032576148636259</v>
       </c>
       <c r="C15">
-        <v>0.1663298279948215</v>
+        <v>0.1663298135824949</v>
       </c>
       <c r="D15">
-        <v>0.2131053872918812</v>
+        <v>0.2131053680856655</v>
       </c>
       <c r="E15">
-        <v>26.56433248158556</v>
+        <v>26.56433008411704</v>
       </c>
       <c r="F15">
-        <v>3.570725095619422</v>
+        <v>3.570725074669732</v>
       </c>
       <c r="G15">
-        <v>0.0006056785435737499</v>
+        <v>0.0006056784947571157</v>
       </c>
       <c r="H15">
-        <v>0.0002679873018207775</v>
+        <v>0.0002679872998222922</v>
       </c>
       <c r="I15">
-        <v>0.1553199895472492</v>
+        <v>0.1553199842782509</v>
       </c>
       <c r="J15">
-        <v>4.53183277301063</v>
+        <v>4.531832483370227</v>
       </c>
       <c r="K15">
-        <v>0.3581076324645081</v>
+        <v>0.3581076319391186</v>
       </c>
       <c r="L15">
-        <v>-0.07797682847675455</v>
+        <v>-0.07797867376135256</v>
       </c>
       <c r="M15">
-        <v>0.007267869208887234</v>
+        <v>0.007267867805568113</v>
       </c>
       <c r="N15">
-        <v>2.726001542648023E-06</v>
+        <v>2.726001511793244E-06</v>
       </c>
       <c r="O15">
-        <v>0.006002796180926899</v>
+        <v>0.00600279588512566</v>
       </c>
       <c r="P15">
-        <v>0.01216633190295841</v>
+        <v>0.01216633136603315</v>
       </c>
       <c r="Q15">
-        <v>0.01229157885098556</v>
+        <v>0.01229157829867545</v>
       </c>
       <c r="R15">
-        <v>0.109842012251066</v>
+        <v>0.1098420118188368</v>
       </c>
       <c r="S15">
-        <v>2.413638979152264E-08</v>
+        <v>2.413637290457616E-08</v>
       </c>
       <c r="T15">
-        <v>1.210492297154862E-05</v>
+        <v>1.210492261986605E-05</v>
       </c>
       <c r="U15">
-        <v>1.371581758509181</v>
+        <v>1.371581753147174</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.006376674754224025</v>
+        <v>0.006376674762647422</v>
       </c>
       <c r="B16">
-        <v>2.716596969699363</v>
+        <v>2.716596970981154</v>
       </c>
       <c r="C16">
-        <v>0.06539456884713565</v>
+        <v>0.0653945680270898</v>
       </c>
       <c r="D16">
-        <v>0.08697010282718616</v>
+        <v>0.08697010176391023</v>
       </c>
       <c r="E16">
-        <v>7.006761643608347</v>
+        <v>7.006761636026497</v>
       </c>
       <c r="F16">
-        <v>1.798712859160661</v>
+        <v>1.798712860345278</v>
       </c>
       <c r="G16">
-        <v>0.0006412244986737375</v>
+        <v>0.0006412244934286139</v>
       </c>
       <c r="H16">
-        <v>8.931098236591505E-05</v>
+        <v>8.931098201565182E-05</v>
       </c>
       <c r="I16">
-        <v>0.07490979835293467</v>
+        <v>0.07490979908629249</v>
       </c>
       <c r="J16">
-        <v>1.503420484347235</v>
+        <v>1.503420468566675</v>
       </c>
       <c r="K16">
-        <v>0.1273094534802708</v>
+        <v>0.1273094533972009</v>
       </c>
       <c r="L16">
-        <v>0.1121491913114463</v>
+        <v>0.112149085148012</v>
       </c>
       <c r="M16">
-        <v>0.00302654633714633</v>
+        <v>0.003026546206673331</v>
       </c>
       <c r="N16">
-        <v>4.228469967411885E-07</v>
+        <v>4.228470000117089E-07</v>
       </c>
       <c r="O16">
-        <v>0.003314047566088957</v>
+        <v>0.003314047569503623</v>
       </c>
       <c r="P16">
-        <v>0.005944326629817543</v>
+        <v>0.005944326701677913</v>
       </c>
       <c r="Q16">
-        <v>0.006631010782054339</v>
+        <v>0.006631010856020025</v>
       </c>
       <c r="R16">
-        <v>0.04453940635539363</v>
+        <v>0.04453940631158532</v>
       </c>
       <c r="S16">
-        <v>1.137514142285994E-08</v>
+        <v>1.137514049111865E-08</v>
       </c>
       <c r="T16">
-        <v>5.300656883304265E-06</v>
+        <v>5.300656885450951E-06</v>
       </c>
       <c r="U16">
-        <v>0.6995528676213206</v>
+        <v>0.6995528684959128</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920802674617</v>
+        <v>-0.0003009920811995147</v>
       </c>
       <c r="B17">
-        <v>-2.398654600482343</v>
+        <v>-2.39865459720012</v>
       </c>
       <c r="C17">
-        <v>-0.1196209923592371</v>
+        <v>-0.1196209911475819</v>
       </c>
       <c r="D17">
-        <v>-0.1592720026389384</v>
+        <v>-0.1592720010387746</v>
       </c>
       <c r="E17">
-        <v>-1.253169413368171</v>
+        <v>-1.253169230867835</v>
       </c>
       <c r="F17">
-        <v>-0.01544141224116116</v>
+        <v>-0.01544141125565556</v>
       </c>
       <c r="G17">
-        <v>-1.152841678464366E-05</v>
+        <v>-1.152841503015259E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141987979547E-05</v>
+        <v>-2.16914197546431E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274712825329</v>
+        <v>-0.0213327464617906</v>
       </c>
       <c r="J17">
-        <v>-2.33358197696329</v>
+        <v>-2.333581952857556</v>
       </c>
       <c r="K17">
-        <v>0.0002297377089478213</v>
+        <v>0.0002297377352329661</v>
       </c>
       <c r="L17">
-        <v>-0.0003537349940146728</v>
+        <v>-0.0003537231132818257</v>
       </c>
       <c r="M17">
-        <v>-0.0002821147906211064</v>
+        <v>-0.0002821146698108338</v>
       </c>
       <c r="N17">
-        <v>-1.034697469608104E-06</v>
+        <v>-1.03469747080137E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728131070484</v>
+        <v>-0.0001109728193859216</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333576103948</v>
+        <v>-0.0006372333941598452</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037219984251</v>
+        <v>-0.0006445037568332145</v>
       </c>
       <c r="R17">
-        <v>-0.003509081739092226</v>
+        <v>-0.003509081717020582</v>
       </c>
       <c r="S17">
-        <v>-6.988120136021739E-09</v>
+        <v>-6.988120021789581E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840512285896E-06</v>
+        <v>-2.907840505469726E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392543224623</v>
+        <v>-0.005221392296054563</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.004780964466311119</v>
+        <v>0.004780964423979118</v>
       </c>
       <c r="B18">
-        <v>2.178995772269377</v>
+        <v>2.178995771396578</v>
       </c>
       <c r="C18">
-        <v>0.03811097126539845</v>
+        <v>0.03811096820891205</v>
       </c>
       <c r="D18">
-        <v>0.0516517063100163</v>
+        <v>0.05165170218244039</v>
       </c>
       <c r="E18">
-        <v>6.356139277763771</v>
+        <v>6.356138629086839</v>
       </c>
       <c r="F18">
-        <v>1.625557050185014</v>
+        <v>1.625557050800314</v>
       </c>
       <c r="G18">
-        <v>0.0002562462350003543</v>
+        <v>0.0002562462262077415</v>
       </c>
       <c r="H18">
-        <v>2.846230688487501E-05</v>
+        <v>2.846230647883429E-05</v>
       </c>
       <c r="I18">
-        <v>0.06626840223582998</v>
+        <v>0.06626840101997919</v>
       </c>
       <c r="J18">
-        <v>0.8811123565466842</v>
+        <v>0.8811122819894578</v>
       </c>
       <c r="K18">
-        <v>0.03940658061599608</v>
+        <v>0.03940658045779134</v>
       </c>
       <c r="L18">
-        <v>0.0248807518275902</v>
+        <v>0.02488070161875253</v>
       </c>
       <c r="M18">
-        <v>0.001691993748502799</v>
+        <v>0.001691993638347359</v>
       </c>
       <c r="N18">
-        <v>3.273022368165222E-07</v>
+        <v>3.273022410634159E-07</v>
       </c>
       <c r="O18">
-        <v>0.002113792907623094</v>
+        <v>0.002113792907904024</v>
       </c>
       <c r="P18">
-        <v>0.004469588848018884</v>
+        <v>0.004469588979866872</v>
       </c>
       <c r="Q18">
-        <v>0.004864475092011146</v>
+        <v>0.004864475225328722</v>
       </c>
       <c r="R18">
-        <v>0.01792902235971242</v>
+        <v>0.01792902228813106</v>
       </c>
       <c r="S18">
-        <v>8.24157814290577E-09</v>
+        <v>8.241577687153625E-09</v>
       </c>
       <c r="T18">
-        <v>3.815500289864076E-06</v>
+        <v>3.815500268198764E-06</v>
       </c>
       <c r="U18">
-        <v>0.6571808927544693</v>
+        <v>0.657180893710965</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001063707196150871</v>
+        <v>0.0001063707193965628</v>
       </c>
       <c r="B19">
-        <v>0.02355055767908412</v>
+        <v>0.02355055768925051</v>
       </c>
       <c r="C19">
-        <v>0.0007964903167197771</v>
+        <v>0.0007964903078974534</v>
       </c>
       <c r="D19">
-        <v>0.0008286073607765503</v>
+        <v>0.000828607348874215</v>
       </c>
       <c r="E19">
-        <v>0.06239220681897527</v>
+        <v>0.06239220484538007</v>
       </c>
       <c r="F19">
-        <v>0.0138669435937</v>
+        <v>0.01386694359831287</v>
       </c>
       <c r="G19">
-        <v>9.461375703346156E-06</v>
+        <v>9.46137570362345E-06</v>
       </c>
       <c r="H19">
-        <v>4.855005563478232E-05</v>
+        <v>4.855005563406757E-05</v>
       </c>
       <c r="I19">
-        <v>0.000658516709366942</v>
+        <v>0.0006585167114205662</v>
       </c>
       <c r="J19">
-        <v>0.01889894677904689</v>
+        <v>0.01889894656190985</v>
       </c>
       <c r="K19">
-        <v>0.0006361200203707929</v>
+        <v>0.0006361200256936874</v>
       </c>
       <c r="L19">
-        <v>0.003557495591551873</v>
+        <v>0.003557494970372705</v>
       </c>
       <c r="M19">
-        <v>3.287165328200608E-05</v>
+        <v>3.287165362931004E-05</v>
       </c>
       <c r="N19">
-        <v>4.902036841088705E-08</v>
+        <v>4.902036841285532E-08</v>
       </c>
       <c r="O19">
-        <v>3.304747131158404E-05</v>
+        <v>3.304747131752209E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004173491618250442</v>
+        <v>0.0004173491618961033</v>
       </c>
       <c r="Q19">
-        <v>0.000643600408941701</v>
+        <v>0.0006436004090122776</v>
       </c>
       <c r="R19">
-        <v>0.005403991845601351</v>
+        <v>0.005403991845564524</v>
       </c>
       <c r="S19">
-        <v>2.107249936082213E-10</v>
+        <v>2.107249880557426E-10</v>
       </c>
       <c r="T19">
-        <v>6.15322782681647E-08</v>
+        <v>6.153227823877108E-08</v>
       </c>
       <c r="U19">
-        <v>0.005326054350007556</v>
+        <v>0.00532605435100488</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0003588603235371381</v>
+        <v>-0.0003588602552407402</v>
       </c>
       <c r="B20">
-        <v>-0.1647369132261368</v>
+        <v>-0.1647369025309892</v>
       </c>
       <c r="C20">
-        <v>-0.03997487850700047</v>
+        <v>-0.03997487655169363</v>
       </c>
       <c r="D20">
-        <v>-0.0514922228301204</v>
+        <v>-0.05149222021647311</v>
       </c>
       <c r="E20">
-        <v>-1.249387717762228</v>
+        <v>-1.249387394035633</v>
       </c>
       <c r="F20">
-        <v>-0.04853409779569298</v>
+        <v>-0.04853409509440611</v>
       </c>
       <c r="G20">
-        <v>-5.554678828282644E-05</v>
+        <v>-5.554678305976102E-05</v>
       </c>
       <c r="H20">
-        <v>-3.3971641963621E-05</v>
+        <v>-3.397164155025607E-05</v>
       </c>
       <c r="I20">
-        <v>-0.009524400940191524</v>
+        <v>-0.009524399692617848</v>
       </c>
       <c r="J20">
-        <v>-0.6402985781571137</v>
+        <v>-0.6402985350723247</v>
       </c>
       <c r="K20">
-        <v>-0.03219664020071</v>
+        <v>-0.03219664018121724</v>
       </c>
       <c r="L20">
-        <v>-0.009609956740488744</v>
+        <v>-0.00960994599708076</v>
       </c>
       <c r="M20">
-        <v>-0.0002753880732439775</v>
+        <v>-0.0002753878186141131</v>
       </c>
       <c r="N20">
-        <v>-9.526177834260949E-08</v>
+        <v>-9.526177476749322E-08</v>
       </c>
       <c r="O20">
-        <v>-0.0002486555955584544</v>
+        <v>-0.0002486555649126239</v>
       </c>
       <c r="P20">
-        <v>-0.0002489438521096844</v>
+        <v>-0.0002489437963535871</v>
       </c>
       <c r="Q20">
-        <v>-0.0002687333427578141</v>
+        <v>-0.0002687332850376562</v>
       </c>
       <c r="R20">
-        <v>-0.0009053003784646277</v>
+        <v>-0.0009053003272858321</v>
       </c>
       <c r="S20">
-        <v>-7.41953120612831E-10</v>
+        <v>-7.419529645482759E-10</v>
       </c>
       <c r="T20">
-        <v>-4.893986199875368E-07</v>
+        <v>-4.893985766719571E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01596443662069802</v>
+        <v>-0.01596443581159696</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.0006754253420723434</v>
+        <v>-0.0006754251325089393</v>
       </c>
       <c r="B21">
-        <v>-0.6003455965765772</v>
+        <v>-0.6003455683259974</v>
       </c>
       <c r="C21">
-        <v>-0.07474441916539386</v>
+        <v>-0.07474441429465536</v>
       </c>
       <c r="D21">
-        <v>-0.09792270793198554</v>
+        <v>-0.09792270135787773</v>
       </c>
       <c r="E21">
-        <v>-1.483743807433285</v>
+        <v>-1.483742789430936</v>
       </c>
       <c r="F21">
-        <v>-0.201140286989917</v>
+        <v>-0.2011402795366512</v>
       </c>
       <c r="G21">
-        <v>-0.0001090717361570187</v>
+        <v>-0.0001090717243461957</v>
       </c>
       <c r="H21">
-        <v>-8.143851368259047E-05</v>
+        <v>-8.143851265112162E-05</v>
       </c>
       <c r="I21">
-        <v>-0.01684666856794186</v>
+        <v>-0.01684666558156645</v>
       </c>
       <c r="J21">
-        <v>-1.468389145195626</v>
+        <v>-1.468389029686302</v>
       </c>
       <c r="K21">
-        <v>-0.02414078613758371</v>
+        <v>-0.0241407859393154</v>
       </c>
       <c r="L21">
-        <v>0.04254333922720848</v>
+        <v>0.04254329931350708</v>
       </c>
       <c r="M21">
-        <v>-0.0001798801720946051</v>
+        <v>-0.0001798798558896212</v>
       </c>
       <c r="N21">
-        <v>-1.291791066148427E-07</v>
+        <v>-1.291790938098672E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0004922860602290249</v>
+        <v>-0.0004922859696877429</v>
       </c>
       <c r="P21">
-        <v>-0.0005867229363734008</v>
+        <v>-0.0005867227467117078</v>
       </c>
       <c r="Q21">
-        <v>-0.000663158832650538</v>
+        <v>-0.0006631586370380927</v>
       </c>
       <c r="R21">
-        <v>-0.0025648242722338</v>
+        <v>-0.002564824158126843</v>
       </c>
       <c r="S21">
-        <v>-1.685099272402764E-09</v>
+        <v>-1.685099454336081E-09</v>
       </c>
       <c r="T21">
-        <v>-1.263970586568226E-06</v>
+        <v>-1.263970466774355E-06</v>
       </c>
       <c r="U21">
-        <v>-0.06971537244545471</v>
+        <v>-0.06971537003899551</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002225502118116832</v>
+        <v>0.00222550211777848</v>
       </c>
       <c r="B22">
-        <v>0.603090749198027</v>
+        <v>0.6030907483060927</v>
       </c>
       <c r="C22">
-        <v>0.03776600805805938</v>
+        <v>0.03776600839741489</v>
       </c>
       <c r="D22">
-        <v>0.04919996949549198</v>
+        <v>0.04919996996573232</v>
       </c>
       <c r="E22">
-        <v>3.719783861441834</v>
+        <v>3.719783970972534</v>
       </c>
       <c r="F22">
-        <v>0.162620562889375</v>
+        <v>0.1626205627709551</v>
       </c>
       <c r="G22">
-        <v>0.0003095745887756337</v>
+        <v>0.0003095745889187297</v>
       </c>
       <c r="H22">
-        <v>3.676146060882645E-05</v>
+        <v>3.676146052386643E-05</v>
       </c>
       <c r="I22">
-        <v>0.0250504272159301</v>
+        <v>0.02505042754677423</v>
       </c>
       <c r="J22">
-        <v>0.684158073665349</v>
+        <v>0.6841580837126565</v>
       </c>
       <c r="K22">
-        <v>0.06256018048983882</v>
+        <v>0.06256018038285131</v>
       </c>
       <c r="L22">
-        <v>0.0352677734261758</v>
+        <v>0.03526745685938926</v>
       </c>
       <c r="M22">
-        <v>0.001041098927761142</v>
+        <v>0.001041098918945497</v>
       </c>
       <c r="N22">
-        <v>2.164227947918363E-07</v>
+        <v>2.164227941441898E-07</v>
       </c>
       <c r="O22">
-        <v>0.001568722522036028</v>
+        <v>0.001568722518206834</v>
       </c>
       <c r="P22">
-        <v>0.001954581827068835</v>
+        <v>0.001954581810691677</v>
       </c>
       <c r="Q22">
-        <v>0.002013852674883682</v>
+        <v>0.002013852658630443</v>
       </c>
       <c r="R22">
-        <v>0.004526912680693771</v>
+        <v>0.004526912680107883</v>
       </c>
       <c r="S22">
-        <v>3.014593053486748E-09</v>
+        <v>3.014590240379395E-09</v>
       </c>
       <c r="T22">
-        <v>1.797458767115702E-06</v>
+        <v>1.797458767247505E-06</v>
       </c>
       <c r="U22">
-        <v>0.04205393738707214</v>
+        <v>0.04205393732578339</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.0002840855633925677</v>
+        <v>0.0002840855624809897</v>
       </c>
       <c r="B23">
-        <v>0.1916309147944973</v>
+        <v>0.1916309146158342</v>
       </c>
       <c r="C23">
-        <v>0.005273320571110778</v>
+        <v>0.005273320553500867</v>
       </c>
       <c r="D23">
-        <v>0.008911897621163675</v>
+        <v>0.008911897598003201</v>
       </c>
       <c r="E23">
-        <v>3.646842369788935</v>
+        <v>3.64684236771589</v>
       </c>
       <c r="F23">
-        <v>0.06090754594606101</v>
+        <v>0.06090754590049616</v>
       </c>
       <c r="G23">
-        <v>1.904772668705969E-05</v>
+        <v>1.904772663597878E-05</v>
       </c>
       <c r="H23">
-        <v>5.182440339058687E-06</v>
+        <v>5.182440334126383E-06</v>
       </c>
       <c r="I23">
-        <v>0.002546036327119644</v>
+        <v>0.00254603631990255</v>
       </c>
       <c r="J23">
-        <v>0.1602094908051343</v>
+        <v>0.1602094904765597</v>
       </c>
       <c r="K23">
-        <v>0.0008264981649232408</v>
+        <v>0.0008264981584957563</v>
       </c>
       <c r="L23">
-        <v>0.007829167655316792</v>
+        <v>0.00782916865045973</v>
       </c>
       <c r="M23">
-        <v>0.0008259585486448897</v>
+        <v>0.0008259585476410774</v>
       </c>
       <c r="N23">
-        <v>8.549886573466874E-08</v>
+        <v>8.549886565860958E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001606574448066926</v>
+        <v>0.0001606574442447393</v>
       </c>
       <c r="P23">
-        <v>0.0003520111307264526</v>
+        <v>0.0003520111289873388</v>
       </c>
       <c r="Q23">
-        <v>0.0003932514923514626</v>
+        <v>0.0003932514905837658</v>
       </c>
       <c r="R23">
-        <v>0.0002821605896200479</v>
+        <v>0.0002821605891971423</v>
       </c>
       <c r="S23">
-        <v>7.760621763809959E-10</v>
+        <v>7.760621842204861E-10</v>
       </c>
       <c r="T23">
-        <v>3.248031169529777E-07</v>
+        <v>3.248031163322998E-07</v>
       </c>
       <c r="U23">
-        <v>0.02566646439918752</v>
+        <v>0.02566646438270757</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2002,67 +2002,67 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>0.00321143322816275</v>
+        <v>0.003211433395001417</v>
       </c>
       <c r="B25">
-        <v>1.192351069364136</v>
+        <v>1.192351073816846</v>
       </c>
       <c r="C25">
-        <v>0.04087487155817493</v>
+        <v>0.04087487569640441</v>
       </c>
       <c r="D25">
-        <v>0.05159469908125514</v>
+        <v>0.05159470472817997</v>
       </c>
       <c r="E25">
-        <v>7.351983600404934</v>
+        <v>7.351984664989174</v>
       </c>
       <c r="F25">
-        <v>0.2589782423601825</v>
+        <v>0.2589782459566706</v>
       </c>
       <c r="G25">
-        <v>0.000503709056190748</v>
+        <v>0.0005037090645845684</v>
       </c>
       <c r="H25">
-        <v>-0.002462599941909706</v>
+        <v>-0.002462599941013769</v>
       </c>
       <c r="I25">
-        <v>0.02425252835522599</v>
+        <v>0.02425253015962008</v>
       </c>
       <c r="J25">
-        <v>2.397393990318453</v>
+        <v>2.397394107202639</v>
       </c>
       <c r="K25">
-        <v>0.05817103553743733</v>
+        <v>0.05817103624830873</v>
       </c>
       <c r="L25">
-        <v>2.002550126982742</v>
+        <v>2.002549872690724</v>
       </c>
       <c r="M25">
-        <v>0.001342251438478313</v>
+        <v>0.001342250612683872</v>
       </c>
       <c r="N25">
-        <v>3.000385290232881E-07</v>
+        <v>3.000385360688749E-07</v>
       </c>
       <c r="O25">
-        <v>0.002814345986828934</v>
+        <v>0.002814346048834981</v>
       </c>
       <c r="P25">
-        <v>0.004199702793282408</v>
+        <v>0.004199702881861014</v>
       </c>
       <c r="Q25">
-        <v>0.004308237656972181</v>
+        <v>0.004308237749247888</v>
       </c>
       <c r="R25">
-        <v>0.06643524727574265</v>
+        <v>0.06643524731841947</v>
       </c>
       <c r="S25">
-        <v>2.278455838197916E-08</v>
+        <v>2.278455620564871E-08</v>
       </c>
       <c r="T25">
-        <v>3.655687308781826E-06</v>
+        <v>3.655687384683305E-06</v>
       </c>
       <c r="U25">
-        <v>0.08608849749710945</v>
+        <v>0.08608849832794059</v>
       </c>
     </row>
   </sheetData>
